--- a/me/6.AutomationWithSalesforceCLI.xlsx
+++ b/me/6.AutomationWithSalesforceCLI.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SFDX-and-Salesforce-CLI\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D2A02D-51DF-43B4-AC81-30A8E24D3D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DB0CCE-A080-4BF6-979C-0E9577523791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="openssl" sheetId="2" r:id="rId1"/>
     <sheet name="Generate SSL Certificate" sheetId="1" r:id="rId2"/>
+    <sheet name="Create Connected App" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
   <si>
     <t>構成</t>
   </si>
@@ -255,6 +256,45 @@
   </si>
   <si>
     <t>server.crt</t>
+  </si>
+  <si>
+    <t>Check here, Dev Hub setting is enabled. This is the Dev Hub Org through it we want ot create our Scratch Org</t>
+  </si>
+  <si>
+    <t>New Connected App</t>
+  </si>
+  <si>
+    <t>Consumer Key</t>
+  </si>
+  <si>
+    <t>3MVG9n_HvETGhr3DlkICjPm6sn8V8Lg.AWv4h_AvjTVCxQ1F.2fckZz4KKi49pfNUW2KEzvV8GP2eVkLe06_Q</t>
+  </si>
+  <si>
+    <t>Consumer Secret</t>
+  </si>
+  <si>
+    <t>AE060EE7E7C6A00FC6266E55BE0C6A6770F38BD170E5875DE913533BC1CF426C</t>
+  </si>
+  <si>
+    <t>sfdx force:auth:web:login -d</t>
+  </si>
+  <si>
+    <t>sfdx force:auth:jwt:grant --clientid 3MVG9n_HvETGhr3DlkICjPm6sn8V8Lg.AWv4h_AvjTVCxQ1F.2fckZz4KKi49pfNUW2KEzvV8GP2eVkLe06_Q --jwtkeyfile  ../assets/server.key --username vudinhquangk53+sfdx@gmail.com --setdefaultdevhubusername</t>
+  </si>
+  <si>
+    <t>We need to add some Oauth Scopes in this Connected App and the Oauth Scopes means like what kind of operations that we want this Connected App to perform on behalf of us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It does not need to be a System Admin profile if we are working with the enterprise application so we may have to select a different profile there. So just choose an appropriate frofile and assign </t>
+  </si>
+  <si>
+    <t>that profile to this Connected App</t>
+  </si>
+  <si>
+    <t>Try to login the web login before we can actually use JWT token</t>
+  </si>
+  <si>
+    <t>Using jwt flow</t>
   </si>
 </sst>
 </file>
@@ -390,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -401,12 +441,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1253,6 +1302,1206 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>82372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E9CF02-16F5-5859-1541-B22A01D10EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="738468" y="14735175"/>
+          <a:ext cx="10949267" cy="5159197"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>47806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B2991D-BE74-C1DB-ABC8-7BC8978E2BBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="20469225"/>
+          <a:ext cx="10925175" cy="5486581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>104789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B7BB84-372A-51F4-B3A2-ADF9F90D5ED8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="26184224"/>
+          <a:ext cx="10991850" cy="16021065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>106366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D16D87-A620-C35C-F417-4DA82DF24ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="42424351"/>
+          <a:ext cx="11106150" cy="3211515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>60225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93AE38B-415B-C4A7-0B0C-E4F5CDE9C5C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="45881925"/>
+          <a:ext cx="11096625" cy="5613300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>40317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8DD6B6-9534-045E-1A0D-46907978CF48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="51758850"/>
+          <a:ext cx="11258550" cy="5431467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>37737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B19356E-D004-E8D4-A694-EC6418764902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="57407175"/>
+          <a:ext cx="11191875" cy="5686062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D889CF3-C3F2-4C91-09FD-B8336159FD8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2505075" y="61169550"/>
+          <a:ext cx="2266950" cy="2152650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6459DD6-CA35-0689-B18B-18DA3AE5AC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2638425" y="61521975"/>
+          <a:ext cx="2276475" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>15488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28917B3-81AD-AAC1-845C-8F09530FD465}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="63941326"/>
+          <a:ext cx="11115675" cy="5606662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>49201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D4EE0D-0F8D-D236-7E6C-D3FDB252D6F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="69837300"/>
+          <a:ext cx="11201400" cy="5649901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>28072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D884E4-915F-BEAD-41D3-116004463F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752474" y="75685650"/>
+          <a:ext cx="11039475" cy="8162422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>46971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA0B336-36F1-D02C-172E-91201F2E1D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774246" y="84143851"/>
+          <a:ext cx="11240861" cy="5628620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>505</xdr:row>
+      <xdr:rowOff>21811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8A2222-98D1-430F-B487-3E3EC9DB1B68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="90030300"/>
+          <a:ext cx="11163300" cy="5622511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>561</xdr:row>
+      <xdr:rowOff>188854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77CAC6E-717E-A011-8453-0BBC304510D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="100945950"/>
+          <a:ext cx="11315700" cy="5732404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>503712</xdr:colOff>
+      <xdr:row>530</xdr:row>
+      <xdr:rowOff>132823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71D6238-E7A9-6AB0-E4C7-82B854E5481C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="96497775"/>
+          <a:ext cx="8904762" cy="4219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>437036</xdr:colOff>
+      <xdr:row>567</xdr:row>
+      <xdr:rowOff>95157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB50FEBD-FB32-BDFE-04E1-C27AECCB08D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="106794300"/>
+          <a:ext cx="8914286" cy="742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>571</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>577</xdr:row>
+      <xdr:rowOff>103682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175608BF-2CFF-1525-5C26-2D1193B9E5D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="108089700"/>
+          <a:ext cx="11268075" cy="1170482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>566</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>575</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D952FB-0590-BCEB-8F29-6955ABE62FAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6667500" y="107308650"/>
+          <a:ext cx="504825" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>565</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>575</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C285BC-6946-B36A-31B6-65F0B41DCAB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="107232450"/>
+          <a:ext cx="161925" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252DE14E-B73C-3867-97FD-2BB464142F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="1133475"/>
+          <a:ext cx="3086100" cy="31165800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FBF7028-A765-05CF-3F8F-9B18A70FDEE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="26260425"/>
+          <a:ext cx="5657850" cy="6705600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>570</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0095B9E-D193-B5CC-0751-4B34881D068F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="63607950"/>
+          <a:ext cx="247650" cy="44453175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>499</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D24918-C5E2-3373-3BBC-2DCB114FED88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="90287475"/>
+          <a:ext cx="1590675" cy="4886325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>570</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12AFBDC-5587-1BE5-9CBF-F27D97E877EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="1485900"/>
+          <a:ext cx="8296275" cy="107175300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1530,7 +2779,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="2"/>
@@ -2332,7 +3581,7 @@
       <c r="O190" s="8"/>
     </row>
     <row r="193" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B193" s="12" t="s">
+      <c r="B193" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C193" s="2"/>
@@ -2574,7 +3823,7 @@
       <c r="O246" s="8"/>
     </row>
     <row r="249" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B249" s="12" t="s">
+      <c r="B249" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C249" s="2"/>
@@ -2659,8 +3908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,8 +3920,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2"/>
@@ -2693,19 +3941,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
       <c r="L6" s="5"/>
       <c r="M6" t="s">
         <v>61</v>
@@ -2715,19 +3954,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
       <c r="L7" s="5"/>
       <c r="M7" t="s">
         <v>61</v>
@@ -2737,19 +3967,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
       <c r="L8" s="5"/>
       <c r="M8" t="s">
         <v>61</v>
@@ -2759,19 +3980,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
       <c r="L9" s="5"/>
       <c r="M9" t="s">
         <v>61</v>
@@ -2784,960 +3996,445 @@
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="11" t="s">
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
+      <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+      <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
+      <c r="F18" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
+      <c r="F19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
+      <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11" t="s">
+      <c r="G21" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11" t="s">
+      <c r="F22" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11" t="s">
+      <c r="G23" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11" t="s">
+      <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11" t="s">
+      <c r="F25" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
+      <c r="G26" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11" t="s">
+      <c r="H27" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11" t="s">
+      <c r="H28" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11" t="s">
+      <c r="H29" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
+      <c r="G30" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11" t="s">
+      <c r="H31" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11" t="s">
+      <c r="H32" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11" t="s">
+      <c r="H33" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11" t="s">
+      <c r="F34" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11" t="s">
+      <c r="F35" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11" t="s">
+      <c r="G36" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
+      <c r="F37" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11" t="s">
+      <c r="F38" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="11" t="s">
+      <c r="C39" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11" t="s">
+      <c r="D40" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="C41" s="11" t="s">
+      <c r="C41" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
-      <c r="C42" s="11" t="s">
+      <c r="C42" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11" t="s">
+      <c r="D43" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11" t="s">
+      <c r="D44" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11" t="s">
+      <c r="D45" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11" t="s">
+      <c r="D46" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
-      <c r="C48" s="11" t="s">
+      <c r="C48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11" t="s">
+      <c r="D49" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
+      <c r="E50" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11" t="s">
+      <c r="F51" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11" t="s">
+      <c r="G52" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11" t="s">
+      <c r="F53" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11" t="s">
+      <c r="G54" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11" t="s">
+      <c r="H55" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11" t="s">
+      <c r="H56" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11" t="s">
+      <c r="G57" t="s">
         <v>21</v>
       </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11" t="s">
+      <c r="H58" t="s">
         <v>22</v>
       </c>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
-      <c r="C60" s="11" t="s">
+      <c r="C60" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11" t="s">
+      <c r="D61" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
+      <c r="E62" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
+      <c r="F63" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11" t="s">
+      <c r="G64" t="s">
         <v>17</v>
       </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11" t="s">
+      <c r="H65" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11" t="s">
+      <c r="H66" t="s">
         <v>19</v>
       </c>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
+      <c r="F67" t="s">
         <v>28</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
       <c r="L67" s="5"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11" t="s">
+      <c r="G68" t="s">
         <v>40</v>
       </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
-      <c r="C69" s="11" t="s">
+      <c r="C69" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11" t="s">
+      <c r="D70" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11" t="s">
+      <c r="D71" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
       <c r="L71" s="5"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11" t="s">
+      <c r="D72" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
       <c r="L72" s="5"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11" t="s">
+      <c r="D73" t="s">
         <v>37</v>
       </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
       <c r="L73" s="5"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
@@ -3753,19 +4450,6 @@
       <c r="K74" s="7"/>
       <c r="L74" s="8"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-    </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>51</v>
@@ -3821,4 +4505,2714 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05E120F-63A8-4742-94B8-753652C91AC7}">
+  <dimension ref="A4:T578"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A563" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P581" sqref="P581"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="20"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="20"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="20"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="20"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="20"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="20"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="20"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="20"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="20"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="20"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="20"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="20"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="20"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="20"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="20"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="20"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="20"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="20"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="20"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="23"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="334" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C334" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D334" s="3"/>
+      <c r="E334" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F334" s="2"/>
+      <c r="G334" s="2"/>
+      <c r="H334" s="2"/>
+      <c r="I334" s="2"/>
+      <c r="J334" s="2"/>
+      <c r="K334" s="2"/>
+      <c r="L334" s="2"/>
+      <c r="M334" s="2"/>
+      <c r="N334" s="3"/>
+    </row>
+    <row r="335" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C335" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D335" s="8"/>
+      <c r="E335" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F335" s="7"/>
+      <c r="G335" s="7"/>
+      <c r="H335" s="7"/>
+      <c r="I335" s="7"/>
+      <c r="J335" s="7"/>
+      <c r="K335" s="7"/>
+      <c r="L335" s="7"/>
+      <c r="M335" s="7"/>
+      <c r="N335" s="8"/>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B474" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B475" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="507" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B507" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C507" s="2"/>
+      <c r="D507" s="2"/>
+      <c r="E507" s="2"/>
+      <c r="F507" s="2"/>
+      <c r="G507" s="2"/>
+      <c r="H507" s="2"/>
+      <c r="I507" s="2"/>
+      <c r="J507" s="2"/>
+      <c r="K507" s="2"/>
+      <c r="L507" s="2"/>
+      <c r="M507" s="2"/>
+      <c r="N507" s="2"/>
+      <c r="O507" s="2"/>
+      <c r="P507" s="2"/>
+      <c r="Q507" s="2"/>
+      <c r="R507" s="2"/>
+      <c r="S507" s="2"/>
+      <c r="T507" s="3"/>
+    </row>
+    <row r="508" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B508" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C508" s="24"/>
+      <c r="D508" s="24"/>
+      <c r="E508" s="24"/>
+      <c r="F508" s="24"/>
+      <c r="G508" s="24"/>
+      <c r="H508" s="24"/>
+      <c r="I508" s="24"/>
+      <c r="J508" s="24"/>
+      <c r="K508" s="24"/>
+      <c r="L508" s="24"/>
+      <c r="M508" s="24"/>
+      <c r="N508" s="24"/>
+      <c r="O508" s="24"/>
+      <c r="P508" s="24"/>
+      <c r="Q508" s="24"/>
+      <c r="R508" s="24"/>
+      <c r="S508" s="24"/>
+      <c r="T508" s="5"/>
+    </row>
+    <row r="509" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B509" s="4"/>
+      <c r="C509" s="24"/>
+      <c r="D509" s="24"/>
+      <c r="E509" s="24"/>
+      <c r="F509" s="24"/>
+      <c r="G509" s="24"/>
+      <c r="H509" s="24"/>
+      <c r="I509" s="24"/>
+      <c r="J509" s="24"/>
+      <c r="K509" s="24"/>
+      <c r="L509" s="24"/>
+      <c r="M509" s="24"/>
+      <c r="N509" s="24"/>
+      <c r="O509" s="24"/>
+      <c r="P509" s="24"/>
+      <c r="Q509" s="24"/>
+      <c r="R509" s="24"/>
+      <c r="S509" s="24"/>
+      <c r="T509" s="5"/>
+    </row>
+    <row r="510" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B510" s="4"/>
+      <c r="C510" s="24"/>
+      <c r="D510" s="24"/>
+      <c r="E510" s="24"/>
+      <c r="F510" s="24"/>
+      <c r="G510" s="24"/>
+      <c r="H510" s="24"/>
+      <c r="I510" s="24"/>
+      <c r="J510" s="24"/>
+      <c r="K510" s="24"/>
+      <c r="L510" s="24"/>
+      <c r="M510" s="24"/>
+      <c r="N510" s="24"/>
+      <c r="O510" s="24"/>
+      <c r="P510" s="24"/>
+      <c r="Q510" s="24"/>
+      <c r="R510" s="24"/>
+      <c r="S510" s="24"/>
+      <c r="T510" s="5"/>
+    </row>
+    <row r="511" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B511" s="4"/>
+      <c r="C511" s="24"/>
+      <c r="D511" s="24"/>
+      <c r="E511" s="24"/>
+      <c r="F511" s="24"/>
+      <c r="G511" s="24"/>
+      <c r="H511" s="24"/>
+      <c r="I511" s="24"/>
+      <c r="J511" s="24"/>
+      <c r="K511" s="24"/>
+      <c r="L511" s="24"/>
+      <c r="M511" s="24"/>
+      <c r="N511" s="24"/>
+      <c r="O511" s="24"/>
+      <c r="P511" s="24"/>
+      <c r="Q511" s="24"/>
+      <c r="R511" s="24"/>
+      <c r="S511" s="24"/>
+      <c r="T511" s="5"/>
+    </row>
+    <row r="512" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B512" s="4"/>
+      <c r="C512" s="24"/>
+      <c r="D512" s="24"/>
+      <c r="E512" s="24"/>
+      <c r="F512" s="24"/>
+      <c r="G512" s="24"/>
+      <c r="H512" s="24"/>
+      <c r="I512" s="24"/>
+      <c r="J512" s="24"/>
+      <c r="K512" s="24"/>
+      <c r="L512" s="24"/>
+      <c r="M512" s="24"/>
+      <c r="N512" s="24"/>
+      <c r="O512" s="24"/>
+      <c r="P512" s="24"/>
+      <c r="Q512" s="24"/>
+      <c r="R512" s="24"/>
+      <c r="S512" s="24"/>
+      <c r="T512" s="5"/>
+    </row>
+    <row r="513" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B513" s="4"/>
+      <c r="C513" s="24"/>
+      <c r="D513" s="24"/>
+      <c r="E513" s="24"/>
+      <c r="F513" s="24"/>
+      <c r="G513" s="24"/>
+      <c r="H513" s="24"/>
+      <c r="I513" s="24"/>
+      <c r="J513" s="24"/>
+      <c r="K513" s="24"/>
+      <c r="L513" s="24"/>
+      <c r="M513" s="24"/>
+      <c r="N513" s="24"/>
+      <c r="O513" s="24"/>
+      <c r="P513" s="24"/>
+      <c r="Q513" s="24"/>
+      <c r="R513" s="24"/>
+      <c r="S513" s="24"/>
+      <c r="T513" s="5"/>
+    </row>
+    <row r="514" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B514" s="4"/>
+      <c r="C514" s="24"/>
+      <c r="D514" s="24"/>
+      <c r="E514" s="24"/>
+      <c r="F514" s="24"/>
+      <c r="G514" s="24"/>
+      <c r="H514" s="24"/>
+      <c r="I514" s="24"/>
+      <c r="J514" s="24"/>
+      <c r="K514" s="24"/>
+      <c r="L514" s="24"/>
+      <c r="M514" s="24"/>
+      <c r="N514" s="24"/>
+      <c r="O514" s="24"/>
+      <c r="P514" s="24"/>
+      <c r="Q514" s="24"/>
+      <c r="R514" s="24"/>
+      <c r="S514" s="24"/>
+      <c r="T514" s="5"/>
+    </row>
+    <row r="515" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B515" s="4"/>
+      <c r="C515" s="24"/>
+      <c r="D515" s="24"/>
+      <c r="E515" s="24"/>
+      <c r="F515" s="24"/>
+      <c r="G515" s="24"/>
+      <c r="H515" s="24"/>
+      <c r="I515" s="24"/>
+      <c r="J515" s="24"/>
+      <c r="K515" s="24"/>
+      <c r="L515" s="24"/>
+      <c r="M515" s="24"/>
+      <c r="N515" s="24"/>
+      <c r="O515" s="24"/>
+      <c r="P515" s="24"/>
+      <c r="Q515" s="24"/>
+      <c r="R515" s="24"/>
+      <c r="S515" s="24"/>
+      <c r="T515" s="5"/>
+    </row>
+    <row r="516" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B516" s="4"/>
+      <c r="C516" s="24"/>
+      <c r="D516" s="24"/>
+      <c r="E516" s="24"/>
+      <c r="F516" s="24"/>
+      <c r="G516" s="24"/>
+      <c r="H516" s="24"/>
+      <c r="I516" s="24"/>
+      <c r="J516" s="24"/>
+      <c r="K516" s="24"/>
+      <c r="L516" s="24"/>
+      <c r="M516" s="24"/>
+      <c r="N516" s="24"/>
+      <c r="O516" s="24"/>
+      <c r="P516" s="24"/>
+      <c r="Q516" s="24"/>
+      <c r="R516" s="24"/>
+      <c r="S516" s="24"/>
+      <c r="T516" s="5"/>
+    </row>
+    <row r="517" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B517" s="4"/>
+      <c r="C517" s="24"/>
+      <c r="D517" s="24"/>
+      <c r="E517" s="24"/>
+      <c r="F517" s="24"/>
+      <c r="G517" s="24"/>
+      <c r="H517" s="24"/>
+      <c r="I517" s="24"/>
+      <c r="J517" s="24"/>
+      <c r="K517" s="24"/>
+      <c r="L517" s="24"/>
+      <c r="M517" s="24"/>
+      <c r="N517" s="24"/>
+      <c r="O517" s="24"/>
+      <c r="P517" s="24"/>
+      <c r="Q517" s="24"/>
+      <c r="R517" s="24"/>
+      <c r="S517" s="24"/>
+      <c r="T517" s="5"/>
+    </row>
+    <row r="518" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B518" s="4"/>
+      <c r="C518" s="24"/>
+      <c r="D518" s="24"/>
+      <c r="E518" s="24"/>
+      <c r="F518" s="24"/>
+      <c r="G518" s="24"/>
+      <c r="H518" s="24"/>
+      <c r="I518" s="24"/>
+      <c r="J518" s="24"/>
+      <c r="K518" s="24"/>
+      <c r="L518" s="24"/>
+      <c r="M518" s="24"/>
+      <c r="N518" s="24"/>
+      <c r="O518" s="24"/>
+      <c r="P518" s="24"/>
+      <c r="Q518" s="24"/>
+      <c r="R518" s="24"/>
+      <c r="S518" s="24"/>
+      <c r="T518" s="5"/>
+    </row>
+    <row r="519" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B519" s="4"/>
+      <c r="C519" s="24"/>
+      <c r="D519" s="24"/>
+      <c r="E519" s="24"/>
+      <c r="F519" s="24"/>
+      <c r="G519" s="24"/>
+      <c r="H519" s="24"/>
+      <c r="I519" s="24"/>
+      <c r="J519" s="24"/>
+      <c r="K519" s="24"/>
+      <c r="L519" s="24"/>
+      <c r="M519" s="24"/>
+      <c r="N519" s="24"/>
+      <c r="O519" s="24"/>
+      <c r="P519" s="24"/>
+      <c r="Q519" s="24"/>
+      <c r="R519" s="24"/>
+      <c r="S519" s="24"/>
+      <c r="T519" s="5"/>
+    </row>
+    <row r="520" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B520" s="4"/>
+      <c r="C520" s="24"/>
+      <c r="D520" s="24"/>
+      <c r="E520" s="24"/>
+      <c r="F520" s="24"/>
+      <c r="G520" s="24"/>
+      <c r="H520" s="24"/>
+      <c r="I520" s="24"/>
+      <c r="J520" s="24"/>
+      <c r="K520" s="24"/>
+      <c r="L520" s="24"/>
+      <c r="M520" s="24"/>
+      <c r="N520" s="24"/>
+      <c r="O520" s="24"/>
+      <c r="P520" s="24"/>
+      <c r="Q520" s="24"/>
+      <c r="R520" s="24"/>
+      <c r="S520" s="24"/>
+      <c r="T520" s="5"/>
+    </row>
+    <row r="521" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B521" s="4"/>
+      <c r="C521" s="24"/>
+      <c r="D521" s="24"/>
+      <c r="E521" s="24"/>
+      <c r="F521" s="24"/>
+      <c r="G521" s="24"/>
+      <c r="H521" s="24"/>
+      <c r="I521" s="24"/>
+      <c r="J521" s="24"/>
+      <c r="K521" s="24"/>
+      <c r="L521" s="24"/>
+      <c r="M521" s="24"/>
+      <c r="N521" s="24"/>
+      <c r="O521" s="24"/>
+      <c r="P521" s="24"/>
+      <c r="Q521" s="24"/>
+      <c r="R521" s="24"/>
+      <c r="S521" s="24"/>
+      <c r="T521" s="5"/>
+    </row>
+    <row r="522" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B522" s="4"/>
+      <c r="C522" s="24"/>
+      <c r="D522" s="24"/>
+      <c r="E522" s="24"/>
+      <c r="F522" s="24"/>
+      <c r="G522" s="24"/>
+      <c r="H522" s="24"/>
+      <c r="I522" s="24"/>
+      <c r="J522" s="24"/>
+      <c r="K522" s="24"/>
+      <c r="L522" s="24"/>
+      <c r="M522" s="24"/>
+      <c r="N522" s="24"/>
+      <c r="O522" s="24"/>
+      <c r="P522" s="24"/>
+      <c r="Q522" s="24"/>
+      <c r="R522" s="24"/>
+      <c r="S522" s="24"/>
+      <c r="T522" s="5"/>
+    </row>
+    <row r="523" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B523" s="4"/>
+      <c r="C523" s="24"/>
+      <c r="D523" s="24"/>
+      <c r="E523" s="24"/>
+      <c r="F523" s="24"/>
+      <c r="G523" s="24"/>
+      <c r="H523" s="24"/>
+      <c r="I523" s="24"/>
+      <c r="J523" s="24"/>
+      <c r="K523" s="24"/>
+      <c r="L523" s="24"/>
+      <c r="M523" s="24"/>
+      <c r="N523" s="24"/>
+      <c r="O523" s="24"/>
+      <c r="P523" s="24"/>
+      <c r="Q523" s="24"/>
+      <c r="R523" s="24"/>
+      <c r="S523" s="24"/>
+      <c r="T523" s="5"/>
+    </row>
+    <row r="524" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B524" s="4"/>
+      <c r="C524" s="24"/>
+      <c r="D524" s="24"/>
+      <c r="E524" s="24"/>
+      <c r="F524" s="24"/>
+      <c r="G524" s="24"/>
+      <c r="H524" s="24"/>
+      <c r="I524" s="24"/>
+      <c r="J524" s="24"/>
+      <c r="K524" s="24"/>
+      <c r="L524" s="24"/>
+      <c r="M524" s="24"/>
+      <c r="N524" s="24"/>
+      <c r="O524" s="24"/>
+      <c r="P524" s="24"/>
+      <c r="Q524" s="24"/>
+      <c r="R524" s="24"/>
+      <c r="S524" s="24"/>
+      <c r="T524" s="5"/>
+    </row>
+    <row r="525" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B525" s="4"/>
+      <c r="C525" s="24"/>
+      <c r="D525" s="24"/>
+      <c r="E525" s="24"/>
+      <c r="F525" s="24"/>
+      <c r="G525" s="24"/>
+      <c r="H525" s="24"/>
+      <c r="I525" s="24"/>
+      <c r="J525" s="24"/>
+      <c r="K525" s="24"/>
+      <c r="L525" s="24"/>
+      <c r="M525" s="24"/>
+      <c r="N525" s="24"/>
+      <c r="O525" s="24"/>
+      <c r="P525" s="24"/>
+      <c r="Q525" s="24"/>
+      <c r="R525" s="24"/>
+      <c r="S525" s="24"/>
+      <c r="T525" s="5"/>
+    </row>
+    <row r="526" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B526" s="4"/>
+      <c r="C526" s="24"/>
+      <c r="D526" s="24"/>
+      <c r="E526" s="24"/>
+      <c r="F526" s="24"/>
+      <c r="G526" s="24"/>
+      <c r="H526" s="24"/>
+      <c r="I526" s="24"/>
+      <c r="J526" s="24"/>
+      <c r="K526" s="24"/>
+      <c r="L526" s="24"/>
+      <c r="M526" s="24"/>
+      <c r="N526" s="24"/>
+      <c r="O526" s="24"/>
+      <c r="P526" s="24"/>
+      <c r="Q526" s="24"/>
+      <c r="R526" s="24"/>
+      <c r="S526" s="24"/>
+      <c r="T526" s="5"/>
+    </row>
+    <row r="527" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B527" s="4"/>
+      <c r="C527" s="24"/>
+      <c r="D527" s="24"/>
+      <c r="E527" s="24"/>
+      <c r="F527" s="24"/>
+      <c r="G527" s="24"/>
+      <c r="H527" s="24"/>
+      <c r="I527" s="24"/>
+      <c r="J527" s="24"/>
+      <c r="K527" s="24"/>
+      <c r="L527" s="24"/>
+      <c r="M527" s="24"/>
+      <c r="N527" s="24"/>
+      <c r="O527" s="24"/>
+      <c r="P527" s="24"/>
+      <c r="Q527" s="24"/>
+      <c r="R527" s="24"/>
+      <c r="S527" s="24"/>
+      <c r="T527" s="5"/>
+    </row>
+    <row r="528" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B528" s="4"/>
+      <c r="C528" s="24"/>
+      <c r="D528" s="24"/>
+      <c r="E528" s="24"/>
+      <c r="F528" s="24"/>
+      <c r="G528" s="24"/>
+      <c r="H528" s="24"/>
+      <c r="I528" s="24"/>
+      <c r="J528" s="24"/>
+      <c r="K528" s="24"/>
+      <c r="L528" s="24"/>
+      <c r="M528" s="24"/>
+      <c r="N528" s="24"/>
+      <c r="O528" s="24"/>
+      <c r="P528" s="24"/>
+      <c r="Q528" s="24"/>
+      <c r="R528" s="24"/>
+      <c r="S528" s="24"/>
+      <c r="T528" s="5"/>
+    </row>
+    <row r="529" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B529" s="4"/>
+      <c r="C529" s="24"/>
+      <c r="D529" s="24"/>
+      <c r="E529" s="24"/>
+      <c r="F529" s="24"/>
+      <c r="G529" s="24"/>
+      <c r="H529" s="24"/>
+      <c r="I529" s="24"/>
+      <c r="J529" s="24"/>
+      <c r="K529" s="24"/>
+      <c r="L529" s="24"/>
+      <c r="M529" s="24"/>
+      <c r="N529" s="24"/>
+      <c r="O529" s="24"/>
+      <c r="P529" s="24"/>
+      <c r="Q529" s="24"/>
+      <c r="R529" s="24"/>
+      <c r="S529" s="24"/>
+      <c r="T529" s="5"/>
+    </row>
+    <row r="530" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B530" s="4"/>
+      <c r="C530" s="24"/>
+      <c r="D530" s="24"/>
+      <c r="E530" s="24"/>
+      <c r="F530" s="24"/>
+      <c r="G530" s="24"/>
+      <c r="H530" s="24"/>
+      <c r="I530" s="24"/>
+      <c r="J530" s="24"/>
+      <c r="K530" s="24"/>
+      <c r="L530" s="24"/>
+      <c r="M530" s="24"/>
+      <c r="N530" s="24"/>
+      <c r="O530" s="24"/>
+      <c r="P530" s="24"/>
+      <c r="Q530" s="24"/>
+      <c r="R530" s="24"/>
+      <c r="S530" s="24"/>
+      <c r="T530" s="5"/>
+    </row>
+    <row r="531" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B531" s="4"/>
+      <c r="C531" s="24"/>
+      <c r="D531" s="24"/>
+      <c r="E531" s="24"/>
+      <c r="F531" s="24"/>
+      <c r="G531" s="24"/>
+      <c r="H531" s="24"/>
+      <c r="I531" s="24"/>
+      <c r="J531" s="24"/>
+      <c r="K531" s="24"/>
+      <c r="L531" s="24"/>
+      <c r="M531" s="24"/>
+      <c r="N531" s="24"/>
+      <c r="O531" s="24"/>
+      <c r="P531" s="24"/>
+      <c r="Q531" s="24"/>
+      <c r="R531" s="24"/>
+      <c r="S531" s="24"/>
+      <c r="T531" s="5"/>
+    </row>
+    <row r="532" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B532" s="4"/>
+      <c r="C532" s="24"/>
+      <c r="D532" s="24"/>
+      <c r="E532" s="24"/>
+      <c r="F532" s="24"/>
+      <c r="G532" s="24"/>
+      <c r="H532" s="24"/>
+      <c r="I532" s="24"/>
+      <c r="J532" s="24"/>
+      <c r="K532" s="24"/>
+      <c r="L532" s="24"/>
+      <c r="M532" s="24"/>
+      <c r="N532" s="24"/>
+      <c r="O532" s="24"/>
+      <c r="P532" s="24"/>
+      <c r="Q532" s="24"/>
+      <c r="R532" s="24"/>
+      <c r="S532" s="24"/>
+      <c r="T532" s="5"/>
+    </row>
+    <row r="533" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B533" s="4"/>
+      <c r="C533" s="24"/>
+      <c r="D533" s="24"/>
+      <c r="E533" s="24"/>
+      <c r="F533" s="24"/>
+      <c r="G533" s="24"/>
+      <c r="H533" s="24"/>
+      <c r="I533" s="24"/>
+      <c r="J533" s="24"/>
+      <c r="K533" s="24"/>
+      <c r="L533" s="24"/>
+      <c r="M533" s="24"/>
+      <c r="N533" s="24"/>
+      <c r="O533" s="24"/>
+      <c r="P533" s="24"/>
+      <c r="Q533" s="24"/>
+      <c r="R533" s="24"/>
+      <c r="S533" s="24"/>
+      <c r="T533" s="5"/>
+    </row>
+    <row r="534" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B534" s="4"/>
+      <c r="C534" s="24"/>
+      <c r="D534" s="24"/>
+      <c r="E534" s="24"/>
+      <c r="F534" s="24"/>
+      <c r="G534" s="24"/>
+      <c r="H534" s="24"/>
+      <c r="I534" s="24"/>
+      <c r="J534" s="24"/>
+      <c r="K534" s="24"/>
+      <c r="L534" s="24"/>
+      <c r="M534" s="24"/>
+      <c r="N534" s="24"/>
+      <c r="O534" s="24"/>
+      <c r="P534" s="24"/>
+      <c r="Q534" s="24"/>
+      <c r="R534" s="24"/>
+      <c r="S534" s="24"/>
+      <c r="T534" s="5"/>
+    </row>
+    <row r="535" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B535" s="4"/>
+      <c r="C535" s="24"/>
+      <c r="D535" s="24"/>
+      <c r="E535" s="24"/>
+      <c r="F535" s="24"/>
+      <c r="G535" s="24"/>
+      <c r="H535" s="24"/>
+      <c r="I535" s="24"/>
+      <c r="J535" s="24"/>
+      <c r="K535" s="24"/>
+      <c r="L535" s="24"/>
+      <c r="M535" s="24"/>
+      <c r="N535" s="24"/>
+      <c r="O535" s="24"/>
+      <c r="P535" s="24"/>
+      <c r="Q535" s="24"/>
+      <c r="R535" s="24"/>
+      <c r="S535" s="24"/>
+      <c r="T535" s="5"/>
+    </row>
+    <row r="536" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B536" s="4"/>
+      <c r="C536" s="24"/>
+      <c r="D536" s="24"/>
+      <c r="E536" s="24"/>
+      <c r="F536" s="24"/>
+      <c r="G536" s="24"/>
+      <c r="H536" s="24"/>
+      <c r="I536" s="24"/>
+      <c r="J536" s="24"/>
+      <c r="K536" s="24"/>
+      <c r="L536" s="24"/>
+      <c r="M536" s="24"/>
+      <c r="N536" s="24"/>
+      <c r="O536" s="24"/>
+      <c r="P536" s="24"/>
+      <c r="Q536" s="24"/>
+      <c r="R536" s="24"/>
+      <c r="S536" s="24"/>
+      <c r="T536" s="5"/>
+    </row>
+    <row r="537" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B537" s="4"/>
+      <c r="C537" s="24"/>
+      <c r="D537" s="24"/>
+      <c r="E537" s="24"/>
+      <c r="F537" s="24"/>
+      <c r="G537" s="24"/>
+      <c r="H537" s="24"/>
+      <c r="I537" s="24"/>
+      <c r="J537" s="24"/>
+      <c r="K537" s="24"/>
+      <c r="L537" s="24"/>
+      <c r="M537" s="24"/>
+      <c r="N537" s="24"/>
+      <c r="O537" s="24"/>
+      <c r="P537" s="24"/>
+      <c r="Q537" s="24"/>
+      <c r="R537" s="24"/>
+      <c r="S537" s="24"/>
+      <c r="T537" s="5"/>
+    </row>
+    <row r="538" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B538" s="4"/>
+      <c r="C538" s="24"/>
+      <c r="D538" s="24"/>
+      <c r="E538" s="24"/>
+      <c r="F538" s="24"/>
+      <c r="G538" s="24"/>
+      <c r="H538" s="24"/>
+      <c r="I538" s="24"/>
+      <c r="J538" s="24"/>
+      <c r="K538" s="24"/>
+      <c r="L538" s="24"/>
+      <c r="M538" s="24"/>
+      <c r="N538" s="24"/>
+      <c r="O538" s="24"/>
+      <c r="P538" s="24"/>
+      <c r="Q538" s="24"/>
+      <c r="R538" s="24"/>
+      <c r="S538" s="24"/>
+      <c r="T538" s="5"/>
+    </row>
+    <row r="539" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B539" s="4"/>
+      <c r="C539" s="24"/>
+      <c r="D539" s="24"/>
+      <c r="E539" s="24"/>
+      <c r="F539" s="24"/>
+      <c r="G539" s="24"/>
+      <c r="H539" s="24"/>
+      <c r="I539" s="24"/>
+      <c r="J539" s="24"/>
+      <c r="K539" s="24"/>
+      <c r="L539" s="24"/>
+      <c r="M539" s="24"/>
+      <c r="N539" s="24"/>
+      <c r="O539" s="24"/>
+      <c r="P539" s="24"/>
+      <c r="Q539" s="24"/>
+      <c r="R539" s="24"/>
+      <c r="S539" s="24"/>
+      <c r="T539" s="5"/>
+    </row>
+    <row r="540" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B540" s="4"/>
+      <c r="C540" s="24"/>
+      <c r="D540" s="24"/>
+      <c r="E540" s="24"/>
+      <c r="F540" s="24"/>
+      <c r="G540" s="24"/>
+      <c r="H540" s="24"/>
+      <c r="I540" s="24"/>
+      <c r="J540" s="24"/>
+      <c r="K540" s="24"/>
+      <c r="L540" s="24"/>
+      <c r="M540" s="24"/>
+      <c r="N540" s="24"/>
+      <c r="O540" s="24"/>
+      <c r="P540" s="24"/>
+      <c r="Q540" s="24"/>
+      <c r="R540" s="24"/>
+      <c r="S540" s="24"/>
+      <c r="T540" s="5"/>
+    </row>
+    <row r="541" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B541" s="4"/>
+      <c r="C541" s="24"/>
+      <c r="D541" s="24"/>
+      <c r="E541" s="24"/>
+      <c r="F541" s="24"/>
+      <c r="G541" s="24"/>
+      <c r="H541" s="24"/>
+      <c r="I541" s="24"/>
+      <c r="J541" s="24"/>
+      <c r="K541" s="24"/>
+      <c r="L541" s="24"/>
+      <c r="M541" s="24"/>
+      <c r="N541" s="24"/>
+      <c r="O541" s="24"/>
+      <c r="P541" s="24"/>
+      <c r="Q541" s="24"/>
+      <c r="R541" s="24"/>
+      <c r="S541" s="24"/>
+      <c r="T541" s="5"/>
+    </row>
+    <row r="542" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B542" s="4"/>
+      <c r="C542" s="24"/>
+      <c r="D542" s="24"/>
+      <c r="E542" s="24"/>
+      <c r="F542" s="24"/>
+      <c r="G542" s="24"/>
+      <c r="H542" s="24"/>
+      <c r="I542" s="24"/>
+      <c r="J542" s="24"/>
+      <c r="K542" s="24"/>
+      <c r="L542" s="24"/>
+      <c r="M542" s="24"/>
+      <c r="N542" s="24"/>
+      <c r="O542" s="24"/>
+      <c r="P542" s="24"/>
+      <c r="Q542" s="24"/>
+      <c r="R542" s="24"/>
+      <c r="S542" s="24"/>
+      <c r="T542" s="5"/>
+    </row>
+    <row r="543" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B543" s="4"/>
+      <c r="C543" s="24"/>
+      <c r="D543" s="24"/>
+      <c r="E543" s="24"/>
+      <c r="F543" s="24"/>
+      <c r="G543" s="24"/>
+      <c r="H543" s="24"/>
+      <c r="I543" s="24"/>
+      <c r="J543" s="24"/>
+      <c r="K543" s="24"/>
+      <c r="L543" s="24"/>
+      <c r="M543" s="24"/>
+      <c r="N543" s="24"/>
+      <c r="O543" s="24"/>
+      <c r="P543" s="24"/>
+      <c r="Q543" s="24"/>
+      <c r="R543" s="24"/>
+      <c r="S543" s="24"/>
+      <c r="T543" s="5"/>
+    </row>
+    <row r="544" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B544" s="4"/>
+      <c r="C544" s="24"/>
+      <c r="D544" s="24"/>
+      <c r="E544" s="24"/>
+      <c r="F544" s="24"/>
+      <c r="G544" s="24"/>
+      <c r="H544" s="24"/>
+      <c r="I544" s="24"/>
+      <c r="J544" s="24"/>
+      <c r="K544" s="24"/>
+      <c r="L544" s="24"/>
+      <c r="M544" s="24"/>
+      <c r="N544" s="24"/>
+      <c r="O544" s="24"/>
+      <c r="P544" s="24"/>
+      <c r="Q544" s="24"/>
+      <c r="R544" s="24"/>
+      <c r="S544" s="24"/>
+      <c r="T544" s="5"/>
+    </row>
+    <row r="545" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B545" s="4"/>
+      <c r="C545" s="24"/>
+      <c r="D545" s="24"/>
+      <c r="E545" s="24"/>
+      <c r="F545" s="24"/>
+      <c r="G545" s="24"/>
+      <c r="H545" s="24"/>
+      <c r="I545" s="24"/>
+      <c r="J545" s="24"/>
+      <c r="K545" s="24"/>
+      <c r="L545" s="24"/>
+      <c r="M545" s="24"/>
+      <c r="N545" s="24"/>
+      <c r="O545" s="24"/>
+      <c r="P545" s="24"/>
+      <c r="Q545" s="24"/>
+      <c r="R545" s="24"/>
+      <c r="S545" s="24"/>
+      <c r="T545" s="5"/>
+    </row>
+    <row r="546" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B546" s="4"/>
+      <c r="C546" s="24"/>
+      <c r="D546" s="24"/>
+      <c r="E546" s="24"/>
+      <c r="F546" s="24"/>
+      <c r="G546" s="24"/>
+      <c r="H546" s="24"/>
+      <c r="I546" s="24"/>
+      <c r="J546" s="24"/>
+      <c r="K546" s="24"/>
+      <c r="L546" s="24"/>
+      <c r="M546" s="24"/>
+      <c r="N546" s="24"/>
+      <c r="O546" s="24"/>
+      <c r="P546" s="24"/>
+      <c r="Q546" s="24"/>
+      <c r="R546" s="24"/>
+      <c r="S546" s="24"/>
+      <c r="T546" s="5"/>
+    </row>
+    <row r="547" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B547" s="4"/>
+      <c r="C547" s="24"/>
+      <c r="D547" s="24"/>
+      <c r="E547" s="24"/>
+      <c r="F547" s="24"/>
+      <c r="G547" s="24"/>
+      <c r="H547" s="24"/>
+      <c r="I547" s="24"/>
+      <c r="J547" s="24"/>
+      <c r="K547" s="24"/>
+      <c r="L547" s="24"/>
+      <c r="M547" s="24"/>
+      <c r="N547" s="24"/>
+      <c r="O547" s="24"/>
+      <c r="P547" s="24"/>
+      <c r="Q547" s="24"/>
+      <c r="R547" s="24"/>
+      <c r="S547" s="24"/>
+      <c r="T547" s="5"/>
+    </row>
+    <row r="548" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B548" s="4"/>
+      <c r="C548" s="24"/>
+      <c r="D548" s="24"/>
+      <c r="E548" s="24"/>
+      <c r="F548" s="24"/>
+      <c r="G548" s="24"/>
+      <c r="H548" s="24"/>
+      <c r="I548" s="24"/>
+      <c r="J548" s="24"/>
+      <c r="K548" s="24"/>
+      <c r="L548" s="24"/>
+      <c r="M548" s="24"/>
+      <c r="N548" s="24"/>
+      <c r="O548" s="24"/>
+      <c r="P548" s="24"/>
+      <c r="Q548" s="24"/>
+      <c r="R548" s="24"/>
+      <c r="S548" s="24"/>
+      <c r="T548" s="5"/>
+    </row>
+    <row r="549" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B549" s="4"/>
+      <c r="C549" s="24"/>
+      <c r="D549" s="24"/>
+      <c r="E549" s="24"/>
+      <c r="F549" s="24"/>
+      <c r="G549" s="24"/>
+      <c r="H549" s="24"/>
+      <c r="I549" s="24"/>
+      <c r="J549" s="24"/>
+      <c r="K549" s="24"/>
+      <c r="L549" s="24"/>
+      <c r="M549" s="24"/>
+      <c r="N549" s="24"/>
+      <c r="O549" s="24"/>
+      <c r="P549" s="24"/>
+      <c r="Q549" s="24"/>
+      <c r="R549" s="24"/>
+      <c r="S549" s="24"/>
+      <c r="T549" s="5"/>
+    </row>
+    <row r="550" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B550" s="4"/>
+      <c r="C550" s="24"/>
+      <c r="D550" s="24"/>
+      <c r="E550" s="24"/>
+      <c r="F550" s="24"/>
+      <c r="G550" s="24"/>
+      <c r="H550" s="24"/>
+      <c r="I550" s="24"/>
+      <c r="J550" s="24"/>
+      <c r="K550" s="24"/>
+      <c r="L550" s="24"/>
+      <c r="M550" s="24"/>
+      <c r="N550" s="24"/>
+      <c r="O550" s="24"/>
+      <c r="P550" s="24"/>
+      <c r="Q550" s="24"/>
+      <c r="R550" s="24"/>
+      <c r="S550" s="24"/>
+      <c r="T550" s="5"/>
+    </row>
+    <row r="551" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B551" s="4"/>
+      <c r="C551" s="24"/>
+      <c r="D551" s="24"/>
+      <c r="E551" s="24"/>
+      <c r="F551" s="24"/>
+      <c r="G551" s="24"/>
+      <c r="H551" s="24"/>
+      <c r="I551" s="24"/>
+      <c r="J551" s="24"/>
+      <c r="K551" s="24"/>
+      <c r="L551" s="24"/>
+      <c r="M551" s="24"/>
+      <c r="N551" s="24"/>
+      <c r="O551" s="24"/>
+      <c r="P551" s="24"/>
+      <c r="Q551" s="24"/>
+      <c r="R551" s="24"/>
+      <c r="S551" s="24"/>
+      <c r="T551" s="5"/>
+    </row>
+    <row r="552" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B552" s="4"/>
+      <c r="C552" s="24"/>
+      <c r="D552" s="24"/>
+      <c r="E552" s="24"/>
+      <c r="F552" s="24"/>
+      <c r="G552" s="24"/>
+      <c r="H552" s="24"/>
+      <c r="I552" s="24"/>
+      <c r="J552" s="24"/>
+      <c r="K552" s="24"/>
+      <c r="L552" s="24"/>
+      <c r="M552" s="24"/>
+      <c r="N552" s="24"/>
+      <c r="O552" s="24"/>
+      <c r="P552" s="24"/>
+      <c r="Q552" s="24"/>
+      <c r="R552" s="24"/>
+      <c r="S552" s="24"/>
+      <c r="T552" s="5"/>
+    </row>
+    <row r="553" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B553" s="4"/>
+      <c r="C553" s="24"/>
+      <c r="D553" s="24"/>
+      <c r="E553" s="24"/>
+      <c r="F553" s="24"/>
+      <c r="G553" s="24"/>
+      <c r="H553" s="24"/>
+      <c r="I553" s="24"/>
+      <c r="J553" s="24"/>
+      <c r="K553" s="24"/>
+      <c r="L553" s="24"/>
+      <c r="M553" s="24"/>
+      <c r="N553" s="24"/>
+      <c r="O553" s="24"/>
+      <c r="P553" s="24"/>
+      <c r="Q553" s="24"/>
+      <c r="R553" s="24"/>
+      <c r="S553" s="24"/>
+      <c r="T553" s="5"/>
+    </row>
+    <row r="554" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B554" s="4"/>
+      <c r="C554" s="24"/>
+      <c r="D554" s="24"/>
+      <c r="E554" s="24"/>
+      <c r="F554" s="24"/>
+      <c r="G554" s="24"/>
+      <c r="H554" s="24"/>
+      <c r="I554" s="24"/>
+      <c r="J554" s="24"/>
+      <c r="K554" s="24"/>
+      <c r="L554" s="24"/>
+      <c r="M554" s="24"/>
+      <c r="N554" s="24"/>
+      <c r="O554" s="24"/>
+      <c r="P554" s="24"/>
+      <c r="Q554" s="24"/>
+      <c r="R554" s="24"/>
+      <c r="S554" s="24"/>
+      <c r="T554" s="5"/>
+    </row>
+    <row r="555" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B555" s="4"/>
+      <c r="C555" s="24"/>
+      <c r="D555" s="24"/>
+      <c r="E555" s="24"/>
+      <c r="F555" s="24"/>
+      <c r="G555" s="24"/>
+      <c r="H555" s="24"/>
+      <c r="I555" s="24"/>
+      <c r="J555" s="24"/>
+      <c r="K555" s="24"/>
+      <c r="L555" s="24"/>
+      <c r="M555" s="24"/>
+      <c r="N555" s="24"/>
+      <c r="O555" s="24"/>
+      <c r="P555" s="24"/>
+      <c r="Q555" s="24"/>
+      <c r="R555" s="24"/>
+      <c r="S555" s="24"/>
+      <c r="T555" s="5"/>
+    </row>
+    <row r="556" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B556" s="4"/>
+      <c r="C556" s="24"/>
+      <c r="D556" s="24"/>
+      <c r="E556" s="24"/>
+      <c r="F556" s="24"/>
+      <c r="G556" s="24"/>
+      <c r="H556" s="24"/>
+      <c r="I556" s="24"/>
+      <c r="J556" s="24"/>
+      <c r="K556" s="24"/>
+      <c r="L556" s="24"/>
+      <c r="M556" s="24"/>
+      <c r="N556" s="24"/>
+      <c r="O556" s="24"/>
+      <c r="P556" s="24"/>
+      <c r="Q556" s="24"/>
+      <c r="R556" s="24"/>
+      <c r="S556" s="24"/>
+      <c r="T556" s="5"/>
+    </row>
+    <row r="557" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B557" s="4"/>
+      <c r="C557" s="24"/>
+      <c r="D557" s="24"/>
+      <c r="E557" s="24"/>
+      <c r="F557" s="24"/>
+      <c r="G557" s="24"/>
+      <c r="H557" s="24"/>
+      <c r="I557" s="24"/>
+      <c r="J557" s="24"/>
+      <c r="K557" s="24"/>
+      <c r="L557" s="24"/>
+      <c r="M557" s="24"/>
+      <c r="N557" s="24"/>
+      <c r="O557" s="24"/>
+      <c r="P557" s="24"/>
+      <c r="Q557" s="24"/>
+      <c r="R557" s="24"/>
+      <c r="S557" s="24"/>
+      <c r="T557" s="5"/>
+    </row>
+    <row r="558" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B558" s="4"/>
+      <c r="C558" s="24"/>
+      <c r="D558" s="24"/>
+      <c r="E558" s="24"/>
+      <c r="F558" s="24"/>
+      <c r="G558" s="24"/>
+      <c r="H558" s="24"/>
+      <c r="I558" s="24"/>
+      <c r="J558" s="24"/>
+      <c r="K558" s="24"/>
+      <c r="L558" s="24"/>
+      <c r="M558" s="24"/>
+      <c r="N558" s="24"/>
+      <c r="O558" s="24"/>
+      <c r="P558" s="24"/>
+      <c r="Q558" s="24"/>
+      <c r="R558" s="24"/>
+      <c r="S558" s="24"/>
+      <c r="T558" s="5"/>
+    </row>
+    <row r="559" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B559" s="4"/>
+      <c r="C559" s="24"/>
+      <c r="D559" s="24"/>
+      <c r="E559" s="24"/>
+      <c r="F559" s="24"/>
+      <c r="G559" s="24"/>
+      <c r="H559" s="24"/>
+      <c r="I559" s="24"/>
+      <c r="J559" s="24"/>
+      <c r="K559" s="24"/>
+      <c r="L559" s="24"/>
+      <c r="M559" s="24"/>
+      <c r="N559" s="24"/>
+      <c r="O559" s="24"/>
+      <c r="P559" s="24"/>
+      <c r="Q559" s="24"/>
+      <c r="R559" s="24"/>
+      <c r="S559" s="24"/>
+      <c r="T559" s="5"/>
+    </row>
+    <row r="560" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B560" s="4"/>
+      <c r="C560" s="24"/>
+      <c r="D560" s="24"/>
+      <c r="E560" s="24"/>
+      <c r="F560" s="24"/>
+      <c r="G560" s="24"/>
+      <c r="H560" s="24"/>
+      <c r="I560" s="24"/>
+      <c r="J560" s="24"/>
+      <c r="K560" s="24"/>
+      <c r="L560" s="24"/>
+      <c r="M560" s="24"/>
+      <c r="N560" s="24"/>
+      <c r="O560" s="24"/>
+      <c r="P560" s="24"/>
+      <c r="Q560" s="24"/>
+      <c r="R560" s="24"/>
+      <c r="S560" s="24"/>
+      <c r="T560" s="5"/>
+    </row>
+    <row r="561" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B561" s="4"/>
+      <c r="C561" s="24"/>
+      <c r="D561" s="24"/>
+      <c r="E561" s="24"/>
+      <c r="F561" s="24"/>
+      <c r="G561" s="24"/>
+      <c r="H561" s="24"/>
+      <c r="I561" s="24"/>
+      <c r="J561" s="24"/>
+      <c r="K561" s="24"/>
+      <c r="L561" s="24"/>
+      <c r="M561" s="24"/>
+      <c r="N561" s="24"/>
+      <c r="O561" s="24"/>
+      <c r="P561" s="24"/>
+      <c r="Q561" s="24"/>
+      <c r="R561" s="24"/>
+      <c r="S561" s="24"/>
+      <c r="T561" s="5"/>
+    </row>
+    <row r="562" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B562" s="4"/>
+      <c r="C562" s="24"/>
+      <c r="D562" s="24"/>
+      <c r="E562" s="24"/>
+      <c r="F562" s="24"/>
+      <c r="G562" s="24"/>
+      <c r="H562" s="24"/>
+      <c r="I562" s="24"/>
+      <c r="J562" s="24"/>
+      <c r="K562" s="24"/>
+      <c r="L562" s="24"/>
+      <c r="M562" s="24"/>
+      <c r="N562" s="24"/>
+      <c r="O562" s="24"/>
+      <c r="P562" s="24"/>
+      <c r="Q562" s="24"/>
+      <c r="R562" s="24"/>
+      <c r="S562" s="24"/>
+      <c r="T562" s="5"/>
+    </row>
+    <row r="563" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B563" s="4"/>
+      <c r="C563" s="24"/>
+      <c r="D563" s="24"/>
+      <c r="E563" s="24"/>
+      <c r="F563" s="24"/>
+      <c r="G563" s="24"/>
+      <c r="H563" s="24"/>
+      <c r="I563" s="24"/>
+      <c r="J563" s="24"/>
+      <c r="K563" s="24"/>
+      <c r="L563" s="24"/>
+      <c r="M563" s="24"/>
+      <c r="N563" s="24"/>
+      <c r="O563" s="24"/>
+      <c r="P563" s="24"/>
+      <c r="Q563" s="24"/>
+      <c r="R563" s="24"/>
+      <c r="S563" s="24"/>
+      <c r="T563" s="5"/>
+    </row>
+    <row r="564" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B564" s="4"/>
+      <c r="C564" s="24"/>
+      <c r="D564" s="24"/>
+      <c r="E564" s="24"/>
+      <c r="F564" s="24"/>
+      <c r="G564" s="24"/>
+      <c r="H564" s="24"/>
+      <c r="I564" s="24"/>
+      <c r="J564" s="24"/>
+      <c r="K564" s="24"/>
+      <c r="L564" s="24"/>
+      <c r="M564" s="24"/>
+      <c r="N564" s="24"/>
+      <c r="O564" s="24"/>
+      <c r="P564" s="24"/>
+      <c r="Q564" s="24"/>
+      <c r="R564" s="24"/>
+      <c r="S564" s="24"/>
+      <c r="T564" s="5"/>
+    </row>
+    <row r="565" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B565" s="4"/>
+      <c r="C565" s="24"/>
+      <c r="D565" s="24"/>
+      <c r="E565" s="24"/>
+      <c r="F565" s="24"/>
+      <c r="G565" s="24"/>
+      <c r="H565" s="24"/>
+      <c r="I565" s="24"/>
+      <c r="J565" s="24"/>
+      <c r="K565" s="24"/>
+      <c r="L565" s="24"/>
+      <c r="M565" s="24"/>
+      <c r="N565" s="24"/>
+      <c r="O565" s="24"/>
+      <c r="P565" s="24"/>
+      <c r="Q565" s="24"/>
+      <c r="R565" s="24"/>
+      <c r="S565" s="24"/>
+      <c r="T565" s="5"/>
+    </row>
+    <row r="566" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B566" s="4"/>
+      <c r="C566" s="24"/>
+      <c r="D566" s="24"/>
+      <c r="E566" s="24"/>
+      <c r="F566" s="24"/>
+      <c r="G566" s="24"/>
+      <c r="H566" s="24"/>
+      <c r="I566" s="24"/>
+      <c r="J566" s="24"/>
+      <c r="K566" s="24"/>
+      <c r="L566" s="24"/>
+      <c r="M566" s="24"/>
+      <c r="N566" s="24"/>
+      <c r="O566" s="24"/>
+      <c r="P566" s="24"/>
+      <c r="Q566" s="24"/>
+      <c r="R566" s="24"/>
+      <c r="S566" s="24"/>
+      <c r="T566" s="5"/>
+    </row>
+    <row r="567" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B567" s="4"/>
+      <c r="C567" s="24"/>
+      <c r="D567" s="24"/>
+      <c r="E567" s="24"/>
+      <c r="F567" s="24"/>
+      <c r="G567" s="24"/>
+      <c r="H567" s="24"/>
+      <c r="I567" s="24"/>
+      <c r="J567" s="24"/>
+      <c r="K567" s="24"/>
+      <c r="L567" s="24"/>
+      <c r="M567" s="24"/>
+      <c r="N567" s="24"/>
+      <c r="O567" s="24"/>
+      <c r="P567" s="24"/>
+      <c r="Q567" s="24"/>
+      <c r="R567" s="24"/>
+      <c r="S567" s="24"/>
+      <c r="T567" s="5"/>
+    </row>
+    <row r="568" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B568" s="6"/>
+      <c r="C568" s="7"/>
+      <c r="D568" s="7"/>
+      <c r="E568" s="7"/>
+      <c r="F568" s="7"/>
+      <c r="G568" s="7"/>
+      <c r="H568" s="7"/>
+      <c r="I568" s="7"/>
+      <c r="J568" s="7"/>
+      <c r="K568" s="7"/>
+      <c r="L568" s="7"/>
+      <c r="M568" s="7"/>
+      <c r="N568" s="7"/>
+      <c r="O568" s="7"/>
+      <c r="P568" s="7"/>
+      <c r="Q568" s="7"/>
+      <c r="R568" s="7"/>
+      <c r="S568" s="7"/>
+      <c r="T568" s="8"/>
+    </row>
+    <row r="570" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B570" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C570" s="2"/>
+      <c r="D570" s="2"/>
+      <c r="E570" s="2"/>
+      <c r="F570" s="2"/>
+      <c r="G570" s="2"/>
+      <c r="H570" s="2"/>
+      <c r="I570" s="2"/>
+      <c r="J570" s="2"/>
+      <c r="K570" s="2"/>
+      <c r="L570" s="2"/>
+      <c r="M570" s="2"/>
+      <c r="N570" s="2"/>
+      <c r="O570" s="2"/>
+      <c r="P570" s="2"/>
+      <c r="Q570" s="2"/>
+      <c r="R570" s="2"/>
+      <c r="S570" s="2"/>
+      <c r="T570" s="3"/>
+    </row>
+    <row r="571" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B571" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C571" s="24"/>
+      <c r="D571" s="24"/>
+      <c r="E571" s="24"/>
+      <c r="F571" s="24"/>
+      <c r="G571" s="24"/>
+      <c r="H571" s="24"/>
+      <c r="I571" s="24"/>
+      <c r="J571" s="24"/>
+      <c r="K571" s="24"/>
+      <c r="L571" s="24"/>
+      <c r="M571" s="24"/>
+      <c r="N571" s="24"/>
+      <c r="O571" s="24"/>
+      <c r="P571" s="24"/>
+      <c r="Q571" s="24"/>
+      <c r="R571" s="24"/>
+      <c r="S571" s="24"/>
+      <c r="T571" s="5"/>
+    </row>
+    <row r="572" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B572" s="4"/>
+      <c r="C572" s="24"/>
+      <c r="D572" s="24"/>
+      <c r="E572" s="24"/>
+      <c r="F572" s="24"/>
+      <c r="G572" s="24"/>
+      <c r="H572" s="24"/>
+      <c r="I572" s="24"/>
+      <c r="J572" s="24"/>
+      <c r="K572" s="24"/>
+      <c r="L572" s="24"/>
+      <c r="M572" s="24"/>
+      <c r="N572" s="24"/>
+      <c r="O572" s="24"/>
+      <c r="P572" s="24"/>
+      <c r="Q572" s="24"/>
+      <c r="R572" s="24"/>
+      <c r="S572" s="24"/>
+      <c r="T572" s="5"/>
+    </row>
+    <row r="573" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B573" s="4"/>
+      <c r="C573" s="24"/>
+      <c r="D573" s="24"/>
+      <c r="E573" s="24"/>
+      <c r="F573" s="24"/>
+      <c r="G573" s="24"/>
+      <c r="H573" s="24"/>
+      <c r="I573" s="24"/>
+      <c r="J573" s="24"/>
+      <c r="K573" s="24"/>
+      <c r="L573" s="24"/>
+      <c r="M573" s="24"/>
+      <c r="N573" s="24"/>
+      <c r="O573" s="24"/>
+      <c r="P573" s="24"/>
+      <c r="Q573" s="24"/>
+      <c r="R573" s="24"/>
+      <c r="S573" s="24"/>
+      <c r="T573" s="5"/>
+    </row>
+    <row r="574" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B574" s="4"/>
+      <c r="C574" s="24"/>
+      <c r="D574" s="24"/>
+      <c r="E574" s="24"/>
+      <c r="F574" s="24"/>
+      <c r="G574" s="24"/>
+      <c r="H574" s="24"/>
+      <c r="I574" s="24"/>
+      <c r="J574" s="24"/>
+      <c r="K574" s="24"/>
+      <c r="L574" s="24"/>
+      <c r="M574" s="24"/>
+      <c r="N574" s="24"/>
+      <c r="O574" s="24"/>
+      <c r="P574" s="24"/>
+      <c r="Q574" s="24"/>
+      <c r="R574" s="24"/>
+      <c r="S574" s="24"/>
+      <c r="T574" s="5"/>
+    </row>
+    <row r="575" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B575" s="4"/>
+      <c r="C575" s="24"/>
+      <c r="D575" s="24"/>
+      <c r="E575" s="24"/>
+      <c r="F575" s="24"/>
+      <c r="G575" s="24"/>
+      <c r="H575" s="24"/>
+      <c r="I575" s="24"/>
+      <c r="J575" s="24"/>
+      <c r="K575" s="24"/>
+      <c r="L575" s="24"/>
+      <c r="M575" s="24"/>
+      <c r="N575" s="24"/>
+      <c r="O575" s="24"/>
+      <c r="P575" s="24"/>
+      <c r="Q575" s="24"/>
+      <c r="R575" s="24"/>
+      <c r="S575" s="24"/>
+      <c r="T575" s="5"/>
+    </row>
+    <row r="576" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B576" s="4"/>
+      <c r="C576" s="24"/>
+      <c r="D576" s="24"/>
+      <c r="E576" s="24"/>
+      <c r="F576" s="24"/>
+      <c r="G576" s="24"/>
+      <c r="H576" s="24"/>
+      <c r="I576" s="24"/>
+      <c r="J576" s="24"/>
+      <c r="K576" s="24"/>
+      <c r="L576" s="24"/>
+      <c r="M576" s="24"/>
+      <c r="N576" s="24"/>
+      <c r="O576" s="24"/>
+      <c r="P576" s="24"/>
+      <c r="Q576" s="24"/>
+      <c r="R576" s="24"/>
+      <c r="S576" s="24"/>
+      <c r="T576" s="5"/>
+    </row>
+    <row r="577" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B577" s="4"/>
+      <c r="C577" s="24"/>
+      <c r="D577" s="24"/>
+      <c r="E577" s="24"/>
+      <c r="F577" s="24"/>
+      <c r="G577" s="24"/>
+      <c r="H577" s="24"/>
+      <c r="I577" s="24"/>
+      <c r="J577" s="24"/>
+      <c r="K577" s="24"/>
+      <c r="L577" s="24"/>
+      <c r="M577" s="24"/>
+      <c r="N577" s="24"/>
+      <c r="O577" s="24"/>
+      <c r="P577" s="24"/>
+      <c r="Q577" s="24"/>
+      <c r="R577" s="24"/>
+      <c r="S577" s="24"/>
+      <c r="T577" s="5"/>
+    </row>
+    <row r="578" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B578" s="6"/>
+      <c r="C578" s="7"/>
+      <c r="D578" s="7"/>
+      <c r="E578" s="7"/>
+      <c r="F578" s="7"/>
+      <c r="G578" s="7"/>
+      <c r="H578" s="7"/>
+      <c r="I578" s="7"/>
+      <c r="J578" s="7"/>
+      <c r="K578" s="7"/>
+      <c r="L578" s="7"/>
+      <c r="M578" s="7"/>
+      <c r="N578" s="7"/>
+      <c r="O578" s="7"/>
+      <c r="P578" s="7"/>
+      <c r="Q578" s="7"/>
+      <c r="R578" s="7"/>
+      <c r="S578" s="7"/>
+      <c r="T578" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/6.AutomationWithSalesforceCLI.xlsx
+++ b/me/6.AutomationWithSalesforceCLI.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SFDX-and-Salesforce-CLI\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DB0CCE-A080-4BF6-979C-0E9577523791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCAB026-1C37-4BB8-83C5-5CAB2A3D801E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="openssl" sheetId="2" r:id="rId1"/>
     <sheet name="Generate SSL Certificate" sheetId="1" r:id="rId2"/>
     <sheet name="Create Connected App" sheetId="3" r:id="rId3"/>
+    <sheet name="CLI Automation - 1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="107">
   <si>
     <t>構成</t>
   </si>
@@ -295,6 +296,87 @@
   </si>
   <si>
     <t>Using jwt flow</t>
+  </si>
+  <si>
+    <t>cli-session-automation.sh</t>
+  </si>
+  <si>
+    <t>SFDX-and-Salesforce-CLI\cli-session-automation.sh</t>
+  </si>
+  <si>
+    <t># Set env/temp variable</t>
+  </si>
+  <si>
+    <t>printf "STEP 1: Setting up temp variable\n"</t>
+  </si>
+  <si>
+    <t>printf "STEP 2: Moving in project folder $SFDX_PROJECT_LOCATION\n"</t>
+  </si>
+  <si>
+    <t>cd "$SFDX_PROJECT_LOCATION"</t>
+  </si>
+  <si>
+    <t>printf "STEP 3: Creating new directory $(date +'%Y%m%d')\n"</t>
+  </si>
+  <si>
+    <t>mkdir $(date +'%Y%m%d')</t>
+  </si>
+  <si>
+    <t>cd $(date +'%Y%m%d')</t>
+  </si>
+  <si>
+    <t># cloning github repo</t>
+  </si>
+  <si>
+    <t>printf "STEP 4: Cloning github repo\n"</t>
+  </si>
+  <si>
+    <t>cd tree-plantation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Writing our automation script using Salesforce CLI commands and we automating a few tasks that developer has to do very frequently or almost every day. And this task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">including clone Github repo, then authorize ourselves against the Salesforce Org or a Dev Hub Org and then we will create a Scratch Org and we will push all our metadata in </t>
+  </si>
+  <si>
+    <t>our Scratch Org</t>
+  </si>
+  <si>
+    <t>CLI-Automation</t>
+  </si>
+  <si>
+    <t>export DEV_HUB_USER_NAME=vudinhquangk53+sfdx@gmail.com</t>
+  </si>
+  <si>
+    <t>export COSUMER_KEY=3MVG9n_HvETGhr3DlkICjPm6sn8V8Lg.AWv4h_AvjTVCxQ1F.2fckZz4KKi49pfNUW2KEzvV8GP2eVkLe06_Q</t>
+  </si>
+  <si>
+    <t>Check our user is System Administrator</t>
+  </si>
+  <si>
+    <t>export SERVER_KEY_LOCATION="/c/xampp/htdocs/SFDX-and-Salesforce-CLI/assets/server.key"</t>
+  </si>
+  <si>
+    <t>export SFDX_PROJECT_LOCATION="/c/xampp/htdocs/SFDX-and-Salesforce-CLI/CLI-Automation"</t>
+  </si>
+  <si>
+    <t>The folder where we want to create our sfdx project</t>
+  </si>
+  <si>
+    <t>Create a new folder where we can put our sfdx project and we want to create that folder using the current date because if we will run this script every day then we want the mutiple folders to be created with the current date as their name</t>
+  </si>
+  <si>
+    <t>sh cli-session-automation.sh</t>
+  </si>
+  <si>
+    <t>Run script</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/vudinhquang/tree-plantation.git</t>
   </si>
 </sst>
 </file>
@@ -430,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -445,17 +527,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1910,13 +1981,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>475</xdr:row>
+      <xdr:row>507</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>505</xdr:row>
+      <xdr:row>537</xdr:row>
       <xdr:rowOff>21811</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1954,13 +2025,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>531</xdr:row>
+      <xdr:row>564</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>561</xdr:row>
+      <xdr:row>594</xdr:row>
       <xdr:rowOff>188854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1998,13 +2069,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>508</xdr:row>
+      <xdr:row>541</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>503712</xdr:colOff>
-      <xdr:row>530</xdr:row>
+      <xdr:row>563</xdr:row>
       <xdr:rowOff>132823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2042,13 +2113,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>563</xdr:row>
+      <xdr:row>596</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>437036</xdr:colOff>
-      <xdr:row>567</xdr:row>
+      <xdr:row>600</xdr:row>
       <xdr:rowOff>95157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2086,13 +2157,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>571</xdr:row>
+      <xdr:row>604</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>577</xdr:row>
+      <xdr:row>610</xdr:row>
       <xdr:rowOff>103682</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2130,13 +2201,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>566</xdr:row>
+      <xdr:row>599</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>575</xdr:row>
+      <xdr:row>608</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2184,13 +2255,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>565</xdr:row>
+      <xdr:row>598</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>575</xdr:row>
+      <xdr:row>608</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2340,6 +2411,50 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>147065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5952795A-372B-B04B-0273-0C0CAFABD53C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="90639900"/>
+          <a:ext cx="11287125" cy="5709665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2350,7 +2465,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>570</xdr:row>
+      <xdr:row>603</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2403,7 +2518,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>499</xdr:row>
+      <xdr:row>531</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2456,7 +2571,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>570</xdr:row>
+      <xdr:row>603</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2474,6 +2589,514 @@
         <a:xfrm>
           <a:off x="1838325" y="1485900"/>
           <a:ext cx="8296275" cy="107175300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>499</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D0C0A3-DD80-5F45-20E9-9D1A90722880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="90639900"/>
+          <a:ext cx="6943725" cy="4514850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>86973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DAC920-4F7C-B312-4372-58BCEF860DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="15344775"/>
+          <a:ext cx="11229975" cy="5697198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D849153B-299B-17DC-7CE1-AF008D654C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2514600" y="19354800"/>
+          <a:ext cx="2152650" cy="3581400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F0E367-A857-E99F-64F0-76EE326221E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="1885950"/>
+          <a:ext cx="3829050" cy="21431250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD45838-9A79-91F9-BF1A-A7466F1B56B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="2266950"/>
+          <a:ext cx="4600575" cy="21221700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D4C854-89D8-4EAC-92AE-CE3B26388E87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="552450"/>
+          <a:ext cx="2171700" cy="24269700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65688</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>104317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8CB881-BDA2-03A8-3809-85371ED2CA3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="26155650"/>
+          <a:ext cx="7895238" cy="3666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89E3B11-0F40-E373-1B59-58D550EB9F2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1552575" y="21478875"/>
+          <a:ext cx="685800" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>599252</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>190075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C5F2AC-9131-46F5-8DBF-2A95F39C4157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="29937075"/>
+          <a:ext cx="6580952" cy="3400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C0B51D-722A-A393-F427-6FDDD5986702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="24965025"/>
+          <a:ext cx="1600200" cy="5124450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4509,1149 +5132,521 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05E120F-63A8-4742-94B8-753652C91AC7}">
-  <dimension ref="A4:T578"/>
+  <dimension ref="A4:T611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A563" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P581" sqref="P581"/>
+    <sheetView topLeftCell="A466" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U492" sqref="U492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="20"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="20"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="20"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="20"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="20"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="20"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="20"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="20"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="20"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="20"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
+      <c r="B16" s="4"/>
+      <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="F18" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="F19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="G21" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15" t="s">
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="F22" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15" t="s">
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="G23" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="20"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15" t="s">
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="20"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="F25" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15" t="s">
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="G26" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15" t="s">
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="H27" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="20"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15" t="s">
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="H28" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="20"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15" t="s">
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="H29" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15" t="s">
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="G30" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="20"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15" t="s">
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="H31" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="20"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15" t="s">
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="H32" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="20"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15" t="s">
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="H33" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="20"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15" t="s">
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="F34" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15" t="s">
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="F35" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15" t="s">
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="G36" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15" t="s">
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="F37" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15" t="s">
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="F38" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="20"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="15" t="s">
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="20"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15" t="s">
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="D40" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="20"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="15" t="s">
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="20"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="15" t="s">
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="D43" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="20"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="D44" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="20"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="D45" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="20"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15" t="s">
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="D46" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="20"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="19" t="s">
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="20"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="15" t="s">
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="20"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="D49" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="20"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15" t="s">
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="E50" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="20"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15" t="s">
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="F51" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="20"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15" t="s">
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="G52" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="20"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15" t="s">
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="F53" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="20"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15" t="s">
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="G54" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="20"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15" t="s">
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="H55" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="20"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15" t="s">
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="H56" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="20"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15" t="s">
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="G57" t="s">
         <v>21</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="20"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15" t="s">
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="H58" t="s">
         <v>22</v>
       </c>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="20"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19" t="s">
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="20"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="15" t="s">
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="20"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15" t="s">
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="D61" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="20"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15" t="s">
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="E62" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="20"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15" t="s">
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="F63" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="20"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15" t="s">
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="G64" t="s">
         <v>17</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="20"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15" t="s">
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="H65" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="20"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15" t="s">
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="H66" t="s">
         <v>19</v>
       </c>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="20"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15" t="s">
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="F67" t="s">
         <v>28</v>
       </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="20"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15" t="s">
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="G68" t="s">
         <v>40</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="20"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="15" t="s">
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="20"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15" t="s">
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="D70" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="20"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15" t="s">
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="D71" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="20"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15" t="s">
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="D72" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="20"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15" t="s">
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="D73" t="s">
         <v>37</v>
       </c>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="20"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="23"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="8"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>67</v>
       </c>
@@ -5702,1517 +5697,1575 @@
       <c r="M335" s="7"/>
       <c r="N335" s="8"/>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B474" t="s">
+    <row r="474" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B474" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B475" t="s">
+      <c r="C474" s="2"/>
+      <c r="D474" s="2"/>
+      <c r="E474" s="2"/>
+      <c r="F474" s="2"/>
+      <c r="G474" s="2"/>
+      <c r="H474" s="2"/>
+      <c r="I474" s="2"/>
+      <c r="J474" s="2"/>
+      <c r="K474" s="2"/>
+      <c r="L474" s="2"/>
+      <c r="M474" s="2"/>
+      <c r="N474" s="2"/>
+      <c r="O474" s="2"/>
+      <c r="P474" s="2"/>
+      <c r="Q474" s="2"/>
+      <c r="R474" s="2"/>
+      <c r="S474" s="2"/>
+      <c r="T474" s="3"/>
+    </row>
+    <row r="475" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B475" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="T475" s="5"/>
+    </row>
+    <row r="476" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B476" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T476" s="5"/>
+    </row>
+    <row r="477" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B477" s="4"/>
+      <c r="T477" s="5"/>
+    </row>
+    <row r="478" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B478" s="4"/>
+      <c r="T478" s="5"/>
+    </row>
+    <row r="479" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B479" s="4"/>
+      <c r="T479" s="5"/>
+    </row>
+    <row r="480" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B480" s="4"/>
+      <c r="T480" s="5"/>
+    </row>
+    <row r="481" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B481" s="4"/>
+      <c r="T481" s="5"/>
+    </row>
+    <row r="482" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B482" s="4"/>
+      <c r="T482" s="5"/>
+    </row>
+    <row r="483" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B483" s="4"/>
+      <c r="T483" s="5"/>
+    </row>
+    <row r="484" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B484" s="4"/>
+      <c r="T484" s="5"/>
+    </row>
+    <row r="485" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B485" s="4"/>
+      <c r="T485" s="5"/>
+    </row>
+    <row r="486" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B486" s="4"/>
+      <c r="T486" s="5"/>
+    </row>
+    <row r="487" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B487" s="4"/>
+      <c r="T487" s="5"/>
+    </row>
+    <row r="488" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B488" s="4"/>
+      <c r="T488" s="5"/>
+    </row>
+    <row r="489" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B489" s="4"/>
+      <c r="T489" s="5"/>
+    </row>
+    <row r="490" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B490" s="4"/>
+      <c r="T490" s="5"/>
+    </row>
+    <row r="491" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B491" s="4"/>
+      <c r="T491" s="5"/>
+    </row>
+    <row r="492" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B492" s="4"/>
+      <c r="T492" s="5"/>
+    </row>
+    <row r="493" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B493" s="4"/>
+      <c r="T493" s="5"/>
+    </row>
+    <row r="494" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B494" s="4"/>
+      <c r="T494" s="5"/>
+    </row>
+    <row r="495" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B495" s="4"/>
+      <c r="T495" s="5"/>
+    </row>
+    <row r="496" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B496" s="4"/>
+      <c r="T496" s="5"/>
+    </row>
+    <row r="497" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B497" s="4"/>
+      <c r="T497" s="5"/>
+    </row>
+    <row r="498" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B498" s="4"/>
+      <c r="T498" s="5"/>
+    </row>
+    <row r="499" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B499" s="4"/>
+      <c r="T499" s="5"/>
+    </row>
+    <row r="500" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B500" s="4"/>
+      <c r="T500" s="5"/>
+    </row>
+    <row r="501" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B501" s="4"/>
+      <c r="T501" s="5"/>
+    </row>
+    <row r="502" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B502" s="4"/>
+      <c r="T502" s="5"/>
+    </row>
+    <row r="503" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B503" s="4"/>
+      <c r="T503" s="5"/>
+    </row>
+    <row r="504" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B504" s="4"/>
+      <c r="T504" s="5"/>
+    </row>
+    <row r="505" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B505" s="4"/>
+      <c r="T505" s="5"/>
+    </row>
+    <row r="506" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B506" s="4"/>
+      <c r="T506" s="5"/>
     </row>
     <row r="507" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B507" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C507" s="2"/>
-      <c r="D507" s="2"/>
-      <c r="E507" s="2"/>
-      <c r="F507" s="2"/>
-      <c r="G507" s="2"/>
-      <c r="H507" s="2"/>
-      <c r="I507" s="2"/>
-      <c r="J507" s="2"/>
-      <c r="K507" s="2"/>
-      <c r="L507" s="2"/>
-      <c r="M507" s="2"/>
-      <c r="N507" s="2"/>
-      <c r="O507" s="2"/>
-      <c r="P507" s="2"/>
-      <c r="Q507" s="2"/>
-      <c r="R507" s="2"/>
-      <c r="S507" s="2"/>
-      <c r="T507" s="3"/>
+      <c r="B507" s="4"/>
+      <c r="T507" s="5"/>
     </row>
     <row r="508" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B508" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C508" s="24"/>
-      <c r="D508" s="24"/>
-      <c r="E508" s="24"/>
-      <c r="F508" s="24"/>
-      <c r="G508" s="24"/>
-      <c r="H508" s="24"/>
-      <c r="I508" s="24"/>
-      <c r="J508" s="24"/>
-      <c r="K508" s="24"/>
-      <c r="L508" s="24"/>
-      <c r="M508" s="24"/>
-      <c r="N508" s="24"/>
-      <c r="O508" s="24"/>
-      <c r="P508" s="24"/>
-      <c r="Q508" s="24"/>
-      <c r="R508" s="24"/>
-      <c r="S508" s="24"/>
+      <c r="B508" s="4"/>
       <c r="T508" s="5"/>
     </row>
     <row r="509" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B509" s="4"/>
-      <c r="C509" s="24"/>
-      <c r="D509" s="24"/>
-      <c r="E509" s="24"/>
-      <c r="F509" s="24"/>
-      <c r="G509" s="24"/>
-      <c r="H509" s="24"/>
-      <c r="I509" s="24"/>
-      <c r="J509" s="24"/>
-      <c r="K509" s="24"/>
-      <c r="L509" s="24"/>
-      <c r="M509" s="24"/>
-      <c r="N509" s="24"/>
-      <c r="O509" s="24"/>
-      <c r="P509" s="24"/>
-      <c r="Q509" s="24"/>
-      <c r="R509" s="24"/>
-      <c r="S509" s="24"/>
       <c r="T509" s="5"/>
     </row>
     <row r="510" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B510" s="4"/>
-      <c r="C510" s="24"/>
-      <c r="D510" s="24"/>
-      <c r="E510" s="24"/>
-      <c r="F510" s="24"/>
-      <c r="G510" s="24"/>
-      <c r="H510" s="24"/>
-      <c r="I510" s="24"/>
-      <c r="J510" s="24"/>
-      <c r="K510" s="24"/>
-      <c r="L510" s="24"/>
-      <c r="M510" s="24"/>
-      <c r="N510" s="24"/>
-      <c r="O510" s="24"/>
-      <c r="P510" s="24"/>
-      <c r="Q510" s="24"/>
-      <c r="R510" s="24"/>
-      <c r="S510" s="24"/>
       <c r="T510" s="5"/>
     </row>
     <row r="511" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B511" s="4"/>
-      <c r="C511" s="24"/>
-      <c r="D511" s="24"/>
-      <c r="E511" s="24"/>
-      <c r="F511" s="24"/>
-      <c r="G511" s="24"/>
-      <c r="H511" s="24"/>
-      <c r="I511" s="24"/>
-      <c r="J511" s="24"/>
-      <c r="K511" s="24"/>
-      <c r="L511" s="24"/>
-      <c r="M511" s="24"/>
-      <c r="N511" s="24"/>
-      <c r="O511" s="24"/>
-      <c r="P511" s="24"/>
-      <c r="Q511" s="24"/>
-      <c r="R511" s="24"/>
-      <c r="S511" s="24"/>
       <c r="T511" s="5"/>
     </row>
     <row r="512" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B512" s="4"/>
-      <c r="C512" s="24"/>
-      <c r="D512" s="24"/>
-      <c r="E512" s="24"/>
-      <c r="F512" s="24"/>
-      <c r="G512" s="24"/>
-      <c r="H512" s="24"/>
-      <c r="I512" s="24"/>
-      <c r="J512" s="24"/>
-      <c r="K512" s="24"/>
-      <c r="L512" s="24"/>
-      <c r="M512" s="24"/>
-      <c r="N512" s="24"/>
-      <c r="O512" s="24"/>
-      <c r="P512" s="24"/>
-      <c r="Q512" s="24"/>
-      <c r="R512" s="24"/>
-      <c r="S512" s="24"/>
       <c r="T512" s="5"/>
     </row>
     <row r="513" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B513" s="4"/>
-      <c r="C513" s="24"/>
-      <c r="D513" s="24"/>
-      <c r="E513" s="24"/>
-      <c r="F513" s="24"/>
-      <c r="G513" s="24"/>
-      <c r="H513" s="24"/>
-      <c r="I513" s="24"/>
-      <c r="J513" s="24"/>
-      <c r="K513" s="24"/>
-      <c r="L513" s="24"/>
-      <c r="M513" s="24"/>
-      <c r="N513" s="24"/>
-      <c r="O513" s="24"/>
-      <c r="P513" s="24"/>
-      <c r="Q513" s="24"/>
-      <c r="R513" s="24"/>
-      <c r="S513" s="24"/>
       <c r="T513" s="5"/>
     </row>
     <row r="514" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B514" s="4"/>
-      <c r="C514" s="24"/>
-      <c r="D514" s="24"/>
-      <c r="E514" s="24"/>
-      <c r="F514" s="24"/>
-      <c r="G514" s="24"/>
-      <c r="H514" s="24"/>
-      <c r="I514" s="24"/>
-      <c r="J514" s="24"/>
-      <c r="K514" s="24"/>
-      <c r="L514" s="24"/>
-      <c r="M514" s="24"/>
-      <c r="N514" s="24"/>
-      <c r="O514" s="24"/>
-      <c r="P514" s="24"/>
-      <c r="Q514" s="24"/>
-      <c r="R514" s="24"/>
-      <c r="S514" s="24"/>
       <c r="T514" s="5"/>
     </row>
     <row r="515" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B515" s="4"/>
-      <c r="C515" s="24"/>
-      <c r="D515" s="24"/>
-      <c r="E515" s="24"/>
-      <c r="F515" s="24"/>
-      <c r="G515" s="24"/>
-      <c r="H515" s="24"/>
-      <c r="I515" s="24"/>
-      <c r="J515" s="24"/>
-      <c r="K515" s="24"/>
-      <c r="L515" s="24"/>
-      <c r="M515" s="24"/>
-      <c r="N515" s="24"/>
-      <c r="O515" s="24"/>
-      <c r="P515" s="24"/>
-      <c r="Q515" s="24"/>
-      <c r="R515" s="24"/>
-      <c r="S515" s="24"/>
       <c r="T515" s="5"/>
     </row>
     <row r="516" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B516" s="4"/>
-      <c r="C516" s="24"/>
-      <c r="D516" s="24"/>
-      <c r="E516" s="24"/>
-      <c r="F516" s="24"/>
-      <c r="G516" s="24"/>
-      <c r="H516" s="24"/>
-      <c r="I516" s="24"/>
-      <c r="J516" s="24"/>
-      <c r="K516" s="24"/>
-      <c r="L516" s="24"/>
-      <c r="M516" s="24"/>
-      <c r="N516" s="24"/>
-      <c r="O516" s="24"/>
-      <c r="P516" s="24"/>
-      <c r="Q516" s="24"/>
-      <c r="R516" s="24"/>
-      <c r="S516" s="24"/>
       <c r="T516" s="5"/>
     </row>
     <row r="517" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B517" s="4"/>
-      <c r="C517" s="24"/>
-      <c r="D517" s="24"/>
-      <c r="E517" s="24"/>
-      <c r="F517" s="24"/>
-      <c r="G517" s="24"/>
-      <c r="H517" s="24"/>
-      <c r="I517" s="24"/>
-      <c r="J517" s="24"/>
-      <c r="K517" s="24"/>
-      <c r="L517" s="24"/>
-      <c r="M517" s="24"/>
-      <c r="N517" s="24"/>
-      <c r="O517" s="24"/>
-      <c r="P517" s="24"/>
-      <c r="Q517" s="24"/>
-      <c r="R517" s="24"/>
-      <c r="S517" s="24"/>
       <c r="T517" s="5"/>
     </row>
     <row r="518" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B518" s="4"/>
-      <c r="C518" s="24"/>
-      <c r="D518" s="24"/>
-      <c r="E518" s="24"/>
-      <c r="F518" s="24"/>
-      <c r="G518" s="24"/>
-      <c r="H518" s="24"/>
-      <c r="I518" s="24"/>
-      <c r="J518" s="24"/>
-      <c r="K518" s="24"/>
-      <c r="L518" s="24"/>
-      <c r="M518" s="24"/>
-      <c r="N518" s="24"/>
-      <c r="O518" s="24"/>
-      <c r="P518" s="24"/>
-      <c r="Q518" s="24"/>
-      <c r="R518" s="24"/>
-      <c r="S518" s="24"/>
       <c r="T518" s="5"/>
     </row>
     <row r="519" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B519" s="4"/>
-      <c r="C519" s="24"/>
-      <c r="D519" s="24"/>
-      <c r="E519" s="24"/>
-      <c r="F519" s="24"/>
-      <c r="G519" s="24"/>
-      <c r="H519" s="24"/>
-      <c r="I519" s="24"/>
-      <c r="J519" s="24"/>
-      <c r="K519" s="24"/>
-      <c r="L519" s="24"/>
-      <c r="M519" s="24"/>
-      <c r="N519" s="24"/>
-      <c r="O519" s="24"/>
-      <c r="P519" s="24"/>
-      <c r="Q519" s="24"/>
-      <c r="R519" s="24"/>
-      <c r="S519" s="24"/>
       <c r="T519" s="5"/>
     </row>
     <row r="520" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B520" s="4"/>
-      <c r="C520" s="24"/>
-      <c r="D520" s="24"/>
-      <c r="E520" s="24"/>
-      <c r="F520" s="24"/>
-      <c r="G520" s="24"/>
-      <c r="H520" s="24"/>
-      <c r="I520" s="24"/>
-      <c r="J520" s="24"/>
-      <c r="K520" s="24"/>
-      <c r="L520" s="24"/>
-      <c r="M520" s="24"/>
-      <c r="N520" s="24"/>
-      <c r="O520" s="24"/>
-      <c r="P520" s="24"/>
-      <c r="Q520" s="24"/>
-      <c r="R520" s="24"/>
-      <c r="S520" s="24"/>
       <c r="T520" s="5"/>
     </row>
     <row r="521" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B521" s="4"/>
-      <c r="C521" s="24"/>
-      <c r="D521" s="24"/>
-      <c r="E521" s="24"/>
-      <c r="F521" s="24"/>
-      <c r="G521" s="24"/>
-      <c r="H521" s="24"/>
-      <c r="I521" s="24"/>
-      <c r="J521" s="24"/>
-      <c r="K521" s="24"/>
-      <c r="L521" s="24"/>
-      <c r="M521" s="24"/>
-      <c r="N521" s="24"/>
-      <c r="O521" s="24"/>
-      <c r="P521" s="24"/>
-      <c r="Q521" s="24"/>
-      <c r="R521" s="24"/>
-      <c r="S521" s="24"/>
       <c r="T521" s="5"/>
     </row>
     <row r="522" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B522" s="4"/>
-      <c r="C522" s="24"/>
-      <c r="D522" s="24"/>
-      <c r="E522" s="24"/>
-      <c r="F522" s="24"/>
-      <c r="G522" s="24"/>
-      <c r="H522" s="24"/>
-      <c r="I522" s="24"/>
-      <c r="J522" s="24"/>
-      <c r="K522" s="24"/>
-      <c r="L522" s="24"/>
-      <c r="M522" s="24"/>
-      <c r="N522" s="24"/>
-      <c r="O522" s="24"/>
-      <c r="P522" s="24"/>
-      <c r="Q522" s="24"/>
-      <c r="R522" s="24"/>
-      <c r="S522" s="24"/>
       <c r="T522" s="5"/>
     </row>
     <row r="523" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B523" s="4"/>
-      <c r="C523" s="24"/>
-      <c r="D523" s="24"/>
-      <c r="E523" s="24"/>
-      <c r="F523" s="24"/>
-      <c r="G523" s="24"/>
-      <c r="H523" s="24"/>
-      <c r="I523" s="24"/>
-      <c r="J523" s="24"/>
-      <c r="K523" s="24"/>
-      <c r="L523" s="24"/>
-      <c r="M523" s="24"/>
-      <c r="N523" s="24"/>
-      <c r="O523" s="24"/>
-      <c r="P523" s="24"/>
-      <c r="Q523" s="24"/>
-      <c r="R523" s="24"/>
-      <c r="S523" s="24"/>
       <c r="T523" s="5"/>
     </row>
     <row r="524" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B524" s="4"/>
-      <c r="C524" s="24"/>
-      <c r="D524" s="24"/>
-      <c r="E524" s="24"/>
-      <c r="F524" s="24"/>
-      <c r="G524" s="24"/>
-      <c r="H524" s="24"/>
-      <c r="I524" s="24"/>
-      <c r="J524" s="24"/>
-      <c r="K524" s="24"/>
-      <c r="L524" s="24"/>
-      <c r="M524" s="24"/>
-      <c r="N524" s="24"/>
-      <c r="O524" s="24"/>
-      <c r="P524" s="24"/>
-      <c r="Q524" s="24"/>
-      <c r="R524" s="24"/>
-      <c r="S524" s="24"/>
       <c r="T524" s="5"/>
     </row>
     <row r="525" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B525" s="4"/>
-      <c r="C525" s="24"/>
-      <c r="D525" s="24"/>
-      <c r="E525" s="24"/>
-      <c r="F525" s="24"/>
-      <c r="G525" s="24"/>
-      <c r="H525" s="24"/>
-      <c r="I525" s="24"/>
-      <c r="J525" s="24"/>
-      <c r="K525" s="24"/>
-      <c r="L525" s="24"/>
-      <c r="M525" s="24"/>
-      <c r="N525" s="24"/>
-      <c r="O525" s="24"/>
-      <c r="P525" s="24"/>
-      <c r="Q525" s="24"/>
-      <c r="R525" s="24"/>
-      <c r="S525" s="24"/>
       <c r="T525" s="5"/>
     </row>
     <row r="526" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B526" s="4"/>
-      <c r="C526" s="24"/>
-      <c r="D526" s="24"/>
-      <c r="E526" s="24"/>
-      <c r="F526" s="24"/>
-      <c r="G526" s="24"/>
-      <c r="H526" s="24"/>
-      <c r="I526" s="24"/>
-      <c r="J526" s="24"/>
-      <c r="K526" s="24"/>
-      <c r="L526" s="24"/>
-      <c r="M526" s="24"/>
-      <c r="N526" s="24"/>
-      <c r="O526" s="24"/>
-      <c r="P526" s="24"/>
-      <c r="Q526" s="24"/>
-      <c r="R526" s="24"/>
-      <c r="S526" s="24"/>
       <c r="T526" s="5"/>
     </row>
     <row r="527" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B527" s="4"/>
-      <c r="C527" s="24"/>
-      <c r="D527" s="24"/>
-      <c r="E527" s="24"/>
-      <c r="F527" s="24"/>
-      <c r="G527" s="24"/>
-      <c r="H527" s="24"/>
-      <c r="I527" s="24"/>
-      <c r="J527" s="24"/>
-      <c r="K527" s="24"/>
-      <c r="L527" s="24"/>
-      <c r="M527" s="24"/>
-      <c r="N527" s="24"/>
-      <c r="O527" s="24"/>
-      <c r="P527" s="24"/>
-      <c r="Q527" s="24"/>
-      <c r="R527" s="24"/>
-      <c r="S527" s="24"/>
       <c r="T527" s="5"/>
     </row>
     <row r="528" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B528" s="4"/>
-      <c r="C528" s="24"/>
-      <c r="D528" s="24"/>
-      <c r="E528" s="24"/>
-      <c r="F528" s="24"/>
-      <c r="G528" s="24"/>
-      <c r="H528" s="24"/>
-      <c r="I528" s="24"/>
-      <c r="J528" s="24"/>
-      <c r="K528" s="24"/>
-      <c r="L528" s="24"/>
-      <c r="M528" s="24"/>
-      <c r="N528" s="24"/>
-      <c r="O528" s="24"/>
-      <c r="P528" s="24"/>
-      <c r="Q528" s="24"/>
-      <c r="R528" s="24"/>
-      <c r="S528" s="24"/>
       <c r="T528" s="5"/>
     </row>
     <row r="529" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B529" s="4"/>
-      <c r="C529" s="24"/>
-      <c r="D529" s="24"/>
-      <c r="E529" s="24"/>
-      <c r="F529" s="24"/>
-      <c r="G529" s="24"/>
-      <c r="H529" s="24"/>
-      <c r="I529" s="24"/>
-      <c r="J529" s="24"/>
-      <c r="K529" s="24"/>
-      <c r="L529" s="24"/>
-      <c r="M529" s="24"/>
-      <c r="N529" s="24"/>
-      <c r="O529" s="24"/>
-      <c r="P529" s="24"/>
-      <c r="Q529" s="24"/>
-      <c r="R529" s="24"/>
-      <c r="S529" s="24"/>
       <c r="T529" s="5"/>
     </row>
     <row r="530" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B530" s="4"/>
-      <c r="C530" s="24"/>
-      <c r="D530" s="24"/>
-      <c r="E530" s="24"/>
-      <c r="F530" s="24"/>
-      <c r="G530" s="24"/>
-      <c r="H530" s="24"/>
-      <c r="I530" s="24"/>
-      <c r="J530" s="24"/>
-      <c r="K530" s="24"/>
-      <c r="L530" s="24"/>
-      <c r="M530" s="24"/>
-      <c r="N530" s="24"/>
-      <c r="O530" s="24"/>
-      <c r="P530" s="24"/>
-      <c r="Q530" s="24"/>
-      <c r="R530" s="24"/>
-      <c r="S530" s="24"/>
       <c r="T530" s="5"/>
     </row>
     <row r="531" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B531" s="4"/>
-      <c r="C531" s="24"/>
-      <c r="D531" s="24"/>
-      <c r="E531" s="24"/>
-      <c r="F531" s="24"/>
-      <c r="G531" s="24"/>
-      <c r="H531" s="24"/>
-      <c r="I531" s="24"/>
-      <c r="J531" s="24"/>
-      <c r="K531" s="24"/>
-      <c r="L531" s="24"/>
-      <c r="M531" s="24"/>
-      <c r="N531" s="24"/>
-      <c r="O531" s="24"/>
-      <c r="P531" s="24"/>
-      <c r="Q531" s="24"/>
-      <c r="R531" s="24"/>
-      <c r="S531" s="24"/>
       <c r="T531" s="5"/>
     </row>
     <row r="532" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B532" s="4"/>
-      <c r="C532" s="24"/>
-      <c r="D532" s="24"/>
-      <c r="E532" s="24"/>
-      <c r="F532" s="24"/>
-      <c r="G532" s="24"/>
-      <c r="H532" s="24"/>
-      <c r="I532" s="24"/>
-      <c r="J532" s="24"/>
-      <c r="K532" s="24"/>
-      <c r="L532" s="24"/>
-      <c r="M532" s="24"/>
-      <c r="N532" s="24"/>
-      <c r="O532" s="24"/>
-      <c r="P532" s="24"/>
-      <c r="Q532" s="24"/>
-      <c r="R532" s="24"/>
-      <c r="S532" s="24"/>
       <c r="T532" s="5"/>
     </row>
     <row r="533" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B533" s="4"/>
-      <c r="C533" s="24"/>
-      <c r="D533" s="24"/>
-      <c r="E533" s="24"/>
-      <c r="F533" s="24"/>
-      <c r="G533" s="24"/>
-      <c r="H533" s="24"/>
-      <c r="I533" s="24"/>
-      <c r="J533" s="24"/>
-      <c r="K533" s="24"/>
-      <c r="L533" s="24"/>
-      <c r="M533" s="24"/>
-      <c r="N533" s="24"/>
-      <c r="O533" s="24"/>
-      <c r="P533" s="24"/>
-      <c r="Q533" s="24"/>
-      <c r="R533" s="24"/>
-      <c r="S533" s="24"/>
       <c r="T533" s="5"/>
     </row>
     <row r="534" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B534" s="4"/>
-      <c r="C534" s="24"/>
-      <c r="D534" s="24"/>
-      <c r="E534" s="24"/>
-      <c r="F534" s="24"/>
-      <c r="G534" s="24"/>
-      <c r="H534" s="24"/>
-      <c r="I534" s="24"/>
-      <c r="J534" s="24"/>
-      <c r="K534" s="24"/>
-      <c r="L534" s="24"/>
-      <c r="M534" s="24"/>
-      <c r="N534" s="24"/>
-      <c r="O534" s="24"/>
-      <c r="P534" s="24"/>
-      <c r="Q534" s="24"/>
-      <c r="R534" s="24"/>
-      <c r="S534" s="24"/>
       <c r="T534" s="5"/>
     </row>
     <row r="535" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B535" s="4"/>
-      <c r="C535" s="24"/>
-      <c r="D535" s="24"/>
-      <c r="E535" s="24"/>
-      <c r="F535" s="24"/>
-      <c r="G535" s="24"/>
-      <c r="H535" s="24"/>
-      <c r="I535" s="24"/>
-      <c r="J535" s="24"/>
-      <c r="K535" s="24"/>
-      <c r="L535" s="24"/>
-      <c r="M535" s="24"/>
-      <c r="N535" s="24"/>
-      <c r="O535" s="24"/>
-      <c r="P535" s="24"/>
-      <c r="Q535" s="24"/>
-      <c r="R535" s="24"/>
-      <c r="S535" s="24"/>
       <c r="T535" s="5"/>
     </row>
     <row r="536" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B536" s="4"/>
-      <c r="C536" s="24"/>
-      <c r="D536" s="24"/>
-      <c r="E536" s="24"/>
-      <c r="F536" s="24"/>
-      <c r="G536" s="24"/>
-      <c r="H536" s="24"/>
-      <c r="I536" s="24"/>
-      <c r="J536" s="24"/>
-      <c r="K536" s="24"/>
-      <c r="L536" s="24"/>
-      <c r="M536" s="24"/>
-      <c r="N536" s="24"/>
-      <c r="O536" s="24"/>
-      <c r="P536" s="24"/>
-      <c r="Q536" s="24"/>
-      <c r="R536" s="24"/>
-      <c r="S536" s="24"/>
       <c r="T536" s="5"/>
     </row>
     <row r="537" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B537" s="4"/>
-      <c r="C537" s="24"/>
-      <c r="D537" s="24"/>
-      <c r="E537" s="24"/>
-      <c r="F537" s="24"/>
-      <c r="G537" s="24"/>
-      <c r="H537" s="24"/>
-      <c r="I537" s="24"/>
-      <c r="J537" s="24"/>
-      <c r="K537" s="24"/>
-      <c r="L537" s="24"/>
-      <c r="M537" s="24"/>
-      <c r="N537" s="24"/>
-      <c r="O537" s="24"/>
-      <c r="P537" s="24"/>
-      <c r="Q537" s="24"/>
-      <c r="R537" s="24"/>
-      <c r="S537" s="24"/>
       <c r="T537" s="5"/>
     </row>
     <row r="538" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B538" s="4"/>
-      <c r="C538" s="24"/>
-      <c r="D538" s="24"/>
-      <c r="E538" s="24"/>
-      <c r="F538" s="24"/>
-      <c r="G538" s="24"/>
-      <c r="H538" s="24"/>
-      <c r="I538" s="24"/>
-      <c r="J538" s="24"/>
-      <c r="K538" s="24"/>
-      <c r="L538" s="24"/>
-      <c r="M538" s="24"/>
-      <c r="N538" s="24"/>
-      <c r="O538" s="24"/>
-      <c r="P538" s="24"/>
-      <c r="Q538" s="24"/>
-      <c r="R538" s="24"/>
-      <c r="S538" s="24"/>
-      <c r="T538" s="5"/>
-    </row>
-    <row r="539" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B539" s="4"/>
-      <c r="C539" s="24"/>
-      <c r="D539" s="24"/>
-      <c r="E539" s="24"/>
-      <c r="F539" s="24"/>
-      <c r="G539" s="24"/>
-      <c r="H539" s="24"/>
-      <c r="I539" s="24"/>
-      <c r="J539" s="24"/>
-      <c r="K539" s="24"/>
-      <c r="L539" s="24"/>
-      <c r="M539" s="24"/>
-      <c r="N539" s="24"/>
-      <c r="O539" s="24"/>
-      <c r="P539" s="24"/>
-      <c r="Q539" s="24"/>
-      <c r="R539" s="24"/>
-      <c r="S539" s="24"/>
-      <c r="T539" s="5"/>
+      <c r="B538" s="6"/>
+      <c r="C538" s="7"/>
+      <c r="D538" s="7"/>
+      <c r="E538" s="7"/>
+      <c r="F538" s="7"/>
+      <c r="G538" s="7"/>
+      <c r="H538" s="7"/>
+      <c r="I538" s="7"/>
+      <c r="J538" s="7"/>
+      <c r="K538" s="7"/>
+      <c r="L538" s="7"/>
+      <c r="M538" s="7"/>
+      <c r="N538" s="7"/>
+      <c r="O538" s="7"/>
+      <c r="P538" s="7"/>
+      <c r="Q538" s="7"/>
+      <c r="R538" s="7"/>
+      <c r="S538" s="7"/>
+      <c r="T538" s="8"/>
     </row>
     <row r="540" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B540" s="4"/>
-      <c r="C540" s="24"/>
-      <c r="D540" s="24"/>
-      <c r="E540" s="24"/>
-      <c r="F540" s="24"/>
-      <c r="G540" s="24"/>
-      <c r="H540" s="24"/>
-      <c r="I540" s="24"/>
-      <c r="J540" s="24"/>
-      <c r="K540" s="24"/>
-      <c r="L540" s="24"/>
-      <c r="M540" s="24"/>
-      <c r="N540" s="24"/>
-      <c r="O540" s="24"/>
-      <c r="P540" s="24"/>
-      <c r="Q540" s="24"/>
-      <c r="R540" s="24"/>
-      <c r="S540" s="24"/>
-      <c r="T540" s="5"/>
+      <c r="B540" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C540" s="2"/>
+      <c r="D540" s="2"/>
+      <c r="E540" s="2"/>
+      <c r="F540" s="2"/>
+      <c r="G540" s="2"/>
+      <c r="H540" s="2"/>
+      <c r="I540" s="2"/>
+      <c r="J540" s="2"/>
+      <c r="K540" s="2"/>
+      <c r="L540" s="2"/>
+      <c r="M540" s="2"/>
+      <c r="N540" s="2"/>
+      <c r="O540" s="2"/>
+      <c r="P540" s="2"/>
+      <c r="Q540" s="2"/>
+      <c r="R540" s="2"/>
+      <c r="S540" s="2"/>
+      <c r="T540" s="3"/>
     </row>
     <row r="541" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B541" s="4"/>
-      <c r="C541" s="24"/>
-      <c r="D541" s="24"/>
-      <c r="E541" s="24"/>
-      <c r="F541" s="24"/>
-      <c r="G541" s="24"/>
-      <c r="H541" s="24"/>
-      <c r="I541" s="24"/>
-      <c r="J541" s="24"/>
-      <c r="K541" s="24"/>
-      <c r="L541" s="24"/>
-      <c r="M541" s="24"/>
-      <c r="N541" s="24"/>
-      <c r="O541" s="24"/>
-      <c r="P541" s="24"/>
-      <c r="Q541" s="24"/>
-      <c r="R541" s="24"/>
-      <c r="S541" s="24"/>
+      <c r="B541" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="T541" s="5"/>
     </row>
     <row r="542" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B542" s="4"/>
-      <c r="C542" s="24"/>
-      <c r="D542" s="24"/>
-      <c r="E542" s="24"/>
-      <c r="F542" s="24"/>
-      <c r="G542" s="24"/>
-      <c r="H542" s="24"/>
-      <c r="I542" s="24"/>
-      <c r="J542" s="24"/>
-      <c r="K542" s="24"/>
-      <c r="L542" s="24"/>
-      <c r="M542" s="24"/>
-      <c r="N542" s="24"/>
-      <c r="O542" s="24"/>
-      <c r="P542" s="24"/>
-      <c r="Q542" s="24"/>
-      <c r="R542" s="24"/>
-      <c r="S542" s="24"/>
       <c r="T542" s="5"/>
     </row>
     <row r="543" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B543" s="4"/>
-      <c r="C543" s="24"/>
-      <c r="D543" s="24"/>
-      <c r="E543" s="24"/>
-      <c r="F543" s="24"/>
-      <c r="G543" s="24"/>
-      <c r="H543" s="24"/>
-      <c r="I543" s="24"/>
-      <c r="J543" s="24"/>
-      <c r="K543" s="24"/>
-      <c r="L543" s="24"/>
-      <c r="M543" s="24"/>
-      <c r="N543" s="24"/>
-      <c r="O543" s="24"/>
-      <c r="P543" s="24"/>
-      <c r="Q543" s="24"/>
-      <c r="R543" s="24"/>
-      <c r="S543" s="24"/>
       <c r="T543" s="5"/>
     </row>
     <row r="544" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B544" s="4"/>
-      <c r="C544" s="24"/>
-      <c r="D544" s="24"/>
-      <c r="E544" s="24"/>
-      <c r="F544" s="24"/>
-      <c r="G544" s="24"/>
-      <c r="H544" s="24"/>
-      <c r="I544" s="24"/>
-      <c r="J544" s="24"/>
-      <c r="K544" s="24"/>
-      <c r="L544" s="24"/>
-      <c r="M544" s="24"/>
-      <c r="N544" s="24"/>
-      <c r="O544" s="24"/>
-      <c r="P544" s="24"/>
-      <c r="Q544" s="24"/>
-      <c r="R544" s="24"/>
-      <c r="S544" s="24"/>
       <c r="T544" s="5"/>
     </row>
     <row r="545" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B545" s="4"/>
-      <c r="C545" s="24"/>
-      <c r="D545" s="24"/>
-      <c r="E545" s="24"/>
-      <c r="F545" s="24"/>
-      <c r="G545" s="24"/>
-      <c r="H545" s="24"/>
-      <c r="I545" s="24"/>
-      <c r="J545" s="24"/>
-      <c r="K545" s="24"/>
-      <c r="L545" s="24"/>
-      <c r="M545" s="24"/>
-      <c r="N545" s="24"/>
-      <c r="O545" s="24"/>
-      <c r="P545" s="24"/>
-      <c r="Q545" s="24"/>
-      <c r="R545" s="24"/>
-      <c r="S545" s="24"/>
       <c r="T545" s="5"/>
     </row>
     <row r="546" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B546" s="4"/>
-      <c r="C546" s="24"/>
-      <c r="D546" s="24"/>
-      <c r="E546" s="24"/>
-      <c r="F546" s="24"/>
-      <c r="G546" s="24"/>
-      <c r="H546" s="24"/>
-      <c r="I546" s="24"/>
-      <c r="J546" s="24"/>
-      <c r="K546" s="24"/>
-      <c r="L546" s="24"/>
-      <c r="M546" s="24"/>
-      <c r="N546" s="24"/>
-      <c r="O546" s="24"/>
-      <c r="P546" s="24"/>
-      <c r="Q546" s="24"/>
-      <c r="R546" s="24"/>
-      <c r="S546" s="24"/>
       <c r="T546" s="5"/>
     </row>
     <row r="547" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B547" s="4"/>
-      <c r="C547" s="24"/>
-      <c r="D547" s="24"/>
-      <c r="E547" s="24"/>
-      <c r="F547" s="24"/>
-      <c r="G547" s="24"/>
-      <c r="H547" s="24"/>
-      <c r="I547" s="24"/>
-      <c r="J547" s="24"/>
-      <c r="K547" s="24"/>
-      <c r="L547" s="24"/>
-      <c r="M547" s="24"/>
-      <c r="N547" s="24"/>
-      <c r="O547" s="24"/>
-      <c r="P547" s="24"/>
-      <c r="Q547" s="24"/>
-      <c r="R547" s="24"/>
-      <c r="S547" s="24"/>
       <c r="T547" s="5"/>
     </row>
     <row r="548" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B548" s="4"/>
-      <c r="C548" s="24"/>
-      <c r="D548" s="24"/>
-      <c r="E548" s="24"/>
-      <c r="F548" s="24"/>
-      <c r="G548" s="24"/>
-      <c r="H548" s="24"/>
-      <c r="I548" s="24"/>
-      <c r="J548" s="24"/>
-      <c r="K548" s="24"/>
-      <c r="L548" s="24"/>
-      <c r="M548" s="24"/>
-      <c r="N548" s="24"/>
-      <c r="O548" s="24"/>
-      <c r="P548" s="24"/>
-      <c r="Q548" s="24"/>
-      <c r="R548" s="24"/>
-      <c r="S548" s="24"/>
       <c r="T548" s="5"/>
     </row>
     <row r="549" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B549" s="4"/>
-      <c r="C549" s="24"/>
-      <c r="D549" s="24"/>
-      <c r="E549" s="24"/>
-      <c r="F549" s="24"/>
-      <c r="G549" s="24"/>
-      <c r="H549" s="24"/>
-      <c r="I549" s="24"/>
-      <c r="J549" s="24"/>
-      <c r="K549" s="24"/>
-      <c r="L549" s="24"/>
-      <c r="M549" s="24"/>
-      <c r="N549" s="24"/>
-      <c r="O549" s="24"/>
-      <c r="P549" s="24"/>
-      <c r="Q549" s="24"/>
-      <c r="R549" s="24"/>
-      <c r="S549" s="24"/>
       <c r="T549" s="5"/>
     </row>
     <row r="550" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B550" s="4"/>
-      <c r="C550" s="24"/>
-      <c r="D550" s="24"/>
-      <c r="E550" s="24"/>
-      <c r="F550" s="24"/>
-      <c r="G550" s="24"/>
-      <c r="H550" s="24"/>
-      <c r="I550" s="24"/>
-      <c r="J550" s="24"/>
-      <c r="K550" s="24"/>
-      <c r="L550" s="24"/>
-      <c r="M550" s="24"/>
-      <c r="N550" s="24"/>
-      <c r="O550" s="24"/>
-      <c r="P550" s="24"/>
-      <c r="Q550" s="24"/>
-      <c r="R550" s="24"/>
-      <c r="S550" s="24"/>
       <c r="T550" s="5"/>
     </row>
     <row r="551" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B551" s="4"/>
-      <c r="C551" s="24"/>
-      <c r="D551" s="24"/>
-      <c r="E551" s="24"/>
-      <c r="F551" s="24"/>
-      <c r="G551" s="24"/>
-      <c r="H551" s="24"/>
-      <c r="I551" s="24"/>
-      <c r="J551" s="24"/>
-      <c r="K551" s="24"/>
-      <c r="L551" s="24"/>
-      <c r="M551" s="24"/>
-      <c r="N551" s="24"/>
-      <c r="O551" s="24"/>
-      <c r="P551" s="24"/>
-      <c r="Q551" s="24"/>
-      <c r="R551" s="24"/>
-      <c r="S551" s="24"/>
       <c r="T551" s="5"/>
     </row>
     <row r="552" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B552" s="4"/>
-      <c r="C552" s="24"/>
-      <c r="D552" s="24"/>
-      <c r="E552" s="24"/>
-      <c r="F552" s="24"/>
-      <c r="G552" s="24"/>
-      <c r="H552" s="24"/>
-      <c r="I552" s="24"/>
-      <c r="J552" s="24"/>
-      <c r="K552" s="24"/>
-      <c r="L552" s="24"/>
-      <c r="M552" s="24"/>
-      <c r="N552" s="24"/>
-      <c r="O552" s="24"/>
-      <c r="P552" s="24"/>
-      <c r="Q552" s="24"/>
-      <c r="R552" s="24"/>
-      <c r="S552" s="24"/>
       <c r="T552" s="5"/>
     </row>
     <row r="553" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B553" s="4"/>
-      <c r="C553" s="24"/>
-      <c r="D553" s="24"/>
-      <c r="E553" s="24"/>
-      <c r="F553" s="24"/>
-      <c r="G553" s="24"/>
-      <c r="H553" s="24"/>
-      <c r="I553" s="24"/>
-      <c r="J553" s="24"/>
-      <c r="K553" s="24"/>
-      <c r="L553" s="24"/>
-      <c r="M553" s="24"/>
-      <c r="N553" s="24"/>
-      <c r="O553" s="24"/>
-      <c r="P553" s="24"/>
-      <c r="Q553" s="24"/>
-      <c r="R553" s="24"/>
-      <c r="S553" s="24"/>
       <c r="T553" s="5"/>
     </row>
     <row r="554" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B554" s="4"/>
-      <c r="C554" s="24"/>
-      <c r="D554" s="24"/>
-      <c r="E554" s="24"/>
-      <c r="F554" s="24"/>
-      <c r="G554" s="24"/>
-      <c r="H554" s="24"/>
-      <c r="I554" s="24"/>
-      <c r="J554" s="24"/>
-      <c r="K554" s="24"/>
-      <c r="L554" s="24"/>
-      <c r="M554" s="24"/>
-      <c r="N554" s="24"/>
-      <c r="O554" s="24"/>
-      <c r="P554" s="24"/>
-      <c r="Q554" s="24"/>
-      <c r="R554" s="24"/>
-      <c r="S554" s="24"/>
       <c r="T554" s="5"/>
     </row>
     <row r="555" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B555" s="4"/>
-      <c r="C555" s="24"/>
-      <c r="D555" s="24"/>
-      <c r="E555" s="24"/>
-      <c r="F555" s="24"/>
-      <c r="G555" s="24"/>
-      <c r="H555" s="24"/>
-      <c r="I555" s="24"/>
-      <c r="J555" s="24"/>
-      <c r="K555" s="24"/>
-      <c r="L555" s="24"/>
-      <c r="M555" s="24"/>
-      <c r="N555" s="24"/>
-      <c r="O555" s="24"/>
-      <c r="P555" s="24"/>
-      <c r="Q555" s="24"/>
-      <c r="R555" s="24"/>
-      <c r="S555" s="24"/>
       <c r="T555" s="5"/>
     </row>
     <row r="556" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B556" s="4"/>
-      <c r="C556" s="24"/>
-      <c r="D556" s="24"/>
-      <c r="E556" s="24"/>
-      <c r="F556" s="24"/>
-      <c r="G556" s="24"/>
-      <c r="H556" s="24"/>
-      <c r="I556" s="24"/>
-      <c r="J556" s="24"/>
-      <c r="K556" s="24"/>
-      <c r="L556" s="24"/>
-      <c r="M556" s="24"/>
-      <c r="N556" s="24"/>
-      <c r="O556" s="24"/>
-      <c r="P556" s="24"/>
-      <c r="Q556" s="24"/>
-      <c r="R556" s="24"/>
-      <c r="S556" s="24"/>
       <c r="T556" s="5"/>
     </row>
     <row r="557" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B557" s="4"/>
-      <c r="C557" s="24"/>
-      <c r="D557" s="24"/>
-      <c r="E557" s="24"/>
-      <c r="F557" s="24"/>
-      <c r="G557" s="24"/>
-      <c r="H557" s="24"/>
-      <c r="I557" s="24"/>
-      <c r="J557" s="24"/>
-      <c r="K557" s="24"/>
-      <c r="L557" s="24"/>
-      <c r="M557" s="24"/>
-      <c r="N557" s="24"/>
-      <c r="O557" s="24"/>
-      <c r="P557" s="24"/>
-      <c r="Q557" s="24"/>
-      <c r="R557" s="24"/>
-      <c r="S557" s="24"/>
       <c r="T557" s="5"/>
     </row>
     <row r="558" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B558" s="4"/>
-      <c r="C558" s="24"/>
-      <c r="D558" s="24"/>
-      <c r="E558" s="24"/>
-      <c r="F558" s="24"/>
-      <c r="G558" s="24"/>
-      <c r="H558" s="24"/>
-      <c r="I558" s="24"/>
-      <c r="J558" s="24"/>
-      <c r="K558" s="24"/>
-      <c r="L558" s="24"/>
-      <c r="M558" s="24"/>
-      <c r="N558" s="24"/>
-      <c r="O558" s="24"/>
-      <c r="P558" s="24"/>
-      <c r="Q558" s="24"/>
-      <c r="R558" s="24"/>
-      <c r="S558" s="24"/>
       <c r="T558" s="5"/>
     </row>
     <row r="559" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B559" s="4"/>
-      <c r="C559" s="24"/>
-      <c r="D559" s="24"/>
-      <c r="E559" s="24"/>
-      <c r="F559" s="24"/>
-      <c r="G559" s="24"/>
-      <c r="H559" s="24"/>
-      <c r="I559" s="24"/>
-      <c r="J559" s="24"/>
-      <c r="K559" s="24"/>
-      <c r="L559" s="24"/>
-      <c r="M559" s="24"/>
-      <c r="N559" s="24"/>
-      <c r="O559" s="24"/>
-      <c r="P559" s="24"/>
-      <c r="Q559" s="24"/>
-      <c r="R559" s="24"/>
-      <c r="S559" s="24"/>
       <c r="T559" s="5"/>
     </row>
     <row r="560" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B560" s="4"/>
-      <c r="C560" s="24"/>
-      <c r="D560" s="24"/>
-      <c r="E560" s="24"/>
-      <c r="F560" s="24"/>
-      <c r="G560" s="24"/>
-      <c r="H560" s="24"/>
-      <c r="I560" s="24"/>
-      <c r="J560" s="24"/>
-      <c r="K560" s="24"/>
-      <c r="L560" s="24"/>
-      <c r="M560" s="24"/>
-      <c r="N560" s="24"/>
-      <c r="O560" s="24"/>
-      <c r="P560" s="24"/>
-      <c r="Q560" s="24"/>
-      <c r="R560" s="24"/>
-      <c r="S560" s="24"/>
       <c r="T560" s="5"/>
     </row>
     <row r="561" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B561" s="4"/>
-      <c r="C561" s="24"/>
-      <c r="D561" s="24"/>
-      <c r="E561" s="24"/>
-      <c r="F561" s="24"/>
-      <c r="G561" s="24"/>
-      <c r="H561" s="24"/>
-      <c r="I561" s="24"/>
-      <c r="J561" s="24"/>
-      <c r="K561" s="24"/>
-      <c r="L561" s="24"/>
-      <c r="M561" s="24"/>
-      <c r="N561" s="24"/>
-      <c r="O561" s="24"/>
-      <c r="P561" s="24"/>
-      <c r="Q561" s="24"/>
-      <c r="R561" s="24"/>
-      <c r="S561" s="24"/>
       <c r="T561" s="5"/>
     </row>
     <row r="562" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B562" s="4"/>
-      <c r="C562" s="24"/>
-      <c r="D562" s="24"/>
-      <c r="E562" s="24"/>
-      <c r="F562" s="24"/>
-      <c r="G562" s="24"/>
-      <c r="H562" s="24"/>
-      <c r="I562" s="24"/>
-      <c r="J562" s="24"/>
-      <c r="K562" s="24"/>
-      <c r="L562" s="24"/>
-      <c r="M562" s="24"/>
-      <c r="N562" s="24"/>
-      <c r="O562" s="24"/>
-      <c r="P562" s="24"/>
-      <c r="Q562" s="24"/>
-      <c r="R562" s="24"/>
-      <c r="S562" s="24"/>
       <c r="T562" s="5"/>
     </row>
     <row r="563" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B563" s="4"/>
-      <c r="C563" s="24"/>
-      <c r="D563" s="24"/>
-      <c r="E563" s="24"/>
-      <c r="F563" s="24"/>
-      <c r="G563" s="24"/>
-      <c r="H563" s="24"/>
-      <c r="I563" s="24"/>
-      <c r="J563" s="24"/>
-      <c r="K563" s="24"/>
-      <c r="L563" s="24"/>
-      <c r="M563" s="24"/>
-      <c r="N563" s="24"/>
-      <c r="O563" s="24"/>
-      <c r="P563" s="24"/>
-      <c r="Q563" s="24"/>
-      <c r="R563" s="24"/>
-      <c r="S563" s="24"/>
       <c r="T563" s="5"/>
     </row>
     <row r="564" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B564" s="4"/>
-      <c r="C564" s="24"/>
-      <c r="D564" s="24"/>
-      <c r="E564" s="24"/>
-      <c r="F564" s="24"/>
-      <c r="G564" s="24"/>
-      <c r="H564" s="24"/>
-      <c r="I564" s="24"/>
-      <c r="J564" s="24"/>
-      <c r="K564" s="24"/>
-      <c r="L564" s="24"/>
-      <c r="M564" s="24"/>
-      <c r="N564" s="24"/>
-      <c r="O564" s="24"/>
-      <c r="P564" s="24"/>
-      <c r="Q564" s="24"/>
-      <c r="R564" s="24"/>
-      <c r="S564" s="24"/>
       <c r="T564" s="5"/>
     </row>
     <row r="565" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B565" s="4"/>
-      <c r="C565" s="24"/>
-      <c r="D565" s="24"/>
-      <c r="E565" s="24"/>
-      <c r="F565" s="24"/>
-      <c r="G565" s="24"/>
-      <c r="H565" s="24"/>
-      <c r="I565" s="24"/>
-      <c r="J565" s="24"/>
-      <c r="K565" s="24"/>
-      <c r="L565" s="24"/>
-      <c r="M565" s="24"/>
-      <c r="N565" s="24"/>
-      <c r="O565" s="24"/>
-      <c r="P565" s="24"/>
-      <c r="Q565" s="24"/>
-      <c r="R565" s="24"/>
-      <c r="S565" s="24"/>
       <c r="T565" s="5"/>
     </row>
     <row r="566" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B566" s="4"/>
-      <c r="C566" s="24"/>
-      <c r="D566" s="24"/>
-      <c r="E566" s="24"/>
-      <c r="F566" s="24"/>
-      <c r="G566" s="24"/>
-      <c r="H566" s="24"/>
-      <c r="I566" s="24"/>
-      <c r="J566" s="24"/>
-      <c r="K566" s="24"/>
-      <c r="L566" s="24"/>
-      <c r="M566" s="24"/>
-      <c r="N566" s="24"/>
-      <c r="O566" s="24"/>
-      <c r="P566" s="24"/>
-      <c r="Q566" s="24"/>
-      <c r="R566" s="24"/>
-      <c r="S566" s="24"/>
       <c r="T566" s="5"/>
     </row>
     <row r="567" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B567" s="4"/>
-      <c r="C567" s="24"/>
-      <c r="D567" s="24"/>
-      <c r="E567" s="24"/>
-      <c r="F567" s="24"/>
-      <c r="G567" s="24"/>
-      <c r="H567" s="24"/>
-      <c r="I567" s="24"/>
-      <c r="J567" s="24"/>
-      <c r="K567" s="24"/>
-      <c r="L567" s="24"/>
-      <c r="M567" s="24"/>
-      <c r="N567" s="24"/>
-      <c r="O567" s="24"/>
-      <c r="P567" s="24"/>
-      <c r="Q567" s="24"/>
-      <c r="R567" s="24"/>
-      <c r="S567" s="24"/>
       <c r="T567" s="5"/>
     </row>
     <row r="568" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B568" s="6"/>
-      <c r="C568" s="7"/>
-      <c r="D568" s="7"/>
-      <c r="E568" s="7"/>
-      <c r="F568" s="7"/>
-      <c r="G568" s="7"/>
-      <c r="H568" s="7"/>
-      <c r="I568" s="7"/>
-      <c r="J568" s="7"/>
-      <c r="K568" s="7"/>
-      <c r="L568" s="7"/>
-      <c r="M568" s="7"/>
-      <c r="N568" s="7"/>
-      <c r="O568" s="7"/>
-      <c r="P568" s="7"/>
-      <c r="Q568" s="7"/>
-      <c r="R568" s="7"/>
-      <c r="S568" s="7"/>
-      <c r="T568" s="8"/>
+      <c r="B568" s="4"/>
+      <c r="T568" s="5"/>
+    </row>
+    <row r="569" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B569" s="4"/>
+      <c r="T569" s="5"/>
     </row>
     <row r="570" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B570" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C570" s="2"/>
-      <c r="D570" s="2"/>
-      <c r="E570" s="2"/>
-      <c r="F570" s="2"/>
-      <c r="G570" s="2"/>
-      <c r="H570" s="2"/>
-      <c r="I570" s="2"/>
-      <c r="J570" s="2"/>
-      <c r="K570" s="2"/>
-      <c r="L570" s="2"/>
-      <c r="M570" s="2"/>
-      <c r="N570" s="2"/>
-      <c r="O570" s="2"/>
-      <c r="P570" s="2"/>
-      <c r="Q570" s="2"/>
-      <c r="R570" s="2"/>
-      <c r="S570" s="2"/>
-      <c r="T570" s="3"/>
+      <c r="B570" s="4"/>
+      <c r="T570" s="5"/>
     </row>
     <row r="571" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B571" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C571" s="24"/>
-      <c r="D571" s="24"/>
-      <c r="E571" s="24"/>
-      <c r="F571" s="24"/>
-      <c r="G571" s="24"/>
-      <c r="H571" s="24"/>
-      <c r="I571" s="24"/>
-      <c r="J571" s="24"/>
-      <c r="K571" s="24"/>
-      <c r="L571" s="24"/>
-      <c r="M571" s="24"/>
-      <c r="N571" s="24"/>
-      <c r="O571" s="24"/>
-      <c r="P571" s="24"/>
-      <c r="Q571" s="24"/>
-      <c r="R571" s="24"/>
-      <c r="S571" s="24"/>
+      <c r="B571" s="4"/>
       <c r="T571" s="5"/>
     </row>
     <row r="572" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B572" s="4"/>
-      <c r="C572" s="24"/>
-      <c r="D572" s="24"/>
-      <c r="E572" s="24"/>
-      <c r="F572" s="24"/>
-      <c r="G572" s="24"/>
-      <c r="H572" s="24"/>
-      <c r="I572" s="24"/>
-      <c r="J572" s="24"/>
-      <c r="K572" s="24"/>
-      <c r="L572" s="24"/>
-      <c r="M572" s="24"/>
-      <c r="N572" s="24"/>
-      <c r="O572" s="24"/>
-      <c r="P572" s="24"/>
-      <c r="Q572" s="24"/>
-      <c r="R572" s="24"/>
-      <c r="S572" s="24"/>
       <c r="T572" s="5"/>
     </row>
     <row r="573" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B573" s="4"/>
-      <c r="C573" s="24"/>
-      <c r="D573" s="24"/>
-      <c r="E573" s="24"/>
-      <c r="F573" s="24"/>
-      <c r="G573" s="24"/>
-      <c r="H573" s="24"/>
-      <c r="I573" s="24"/>
-      <c r="J573" s="24"/>
-      <c r="K573" s="24"/>
-      <c r="L573" s="24"/>
-      <c r="M573" s="24"/>
-      <c r="N573" s="24"/>
-      <c r="O573" s="24"/>
-      <c r="P573" s="24"/>
-      <c r="Q573" s="24"/>
-      <c r="R573" s="24"/>
-      <c r="S573" s="24"/>
       <c r="T573" s="5"/>
     </row>
     <row r="574" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B574" s="4"/>
-      <c r="C574" s="24"/>
-      <c r="D574" s="24"/>
-      <c r="E574" s="24"/>
-      <c r="F574" s="24"/>
-      <c r="G574" s="24"/>
-      <c r="H574" s="24"/>
-      <c r="I574" s="24"/>
-      <c r="J574" s="24"/>
-      <c r="K574" s="24"/>
-      <c r="L574" s="24"/>
-      <c r="M574" s="24"/>
-      <c r="N574" s="24"/>
-      <c r="O574" s="24"/>
-      <c r="P574" s="24"/>
-      <c r="Q574" s="24"/>
-      <c r="R574" s="24"/>
-      <c r="S574" s="24"/>
       <c r="T574" s="5"/>
     </row>
     <row r="575" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B575" s="4"/>
-      <c r="C575" s="24"/>
-      <c r="D575" s="24"/>
-      <c r="E575" s="24"/>
-      <c r="F575" s="24"/>
-      <c r="G575" s="24"/>
-      <c r="H575" s="24"/>
-      <c r="I575" s="24"/>
-      <c r="J575" s="24"/>
-      <c r="K575" s="24"/>
-      <c r="L575" s="24"/>
-      <c r="M575" s="24"/>
-      <c r="N575" s="24"/>
-      <c r="O575" s="24"/>
-      <c r="P575" s="24"/>
-      <c r="Q575" s="24"/>
-      <c r="R575" s="24"/>
-      <c r="S575" s="24"/>
       <c r="T575" s="5"/>
     </row>
     <row r="576" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B576" s="4"/>
-      <c r="C576" s="24"/>
-      <c r="D576" s="24"/>
-      <c r="E576" s="24"/>
-      <c r="F576" s="24"/>
-      <c r="G576" s="24"/>
-      <c r="H576" s="24"/>
-      <c r="I576" s="24"/>
-      <c r="J576" s="24"/>
-      <c r="K576" s="24"/>
-      <c r="L576" s="24"/>
-      <c r="M576" s="24"/>
-      <c r="N576" s="24"/>
-      <c r="O576" s="24"/>
-      <c r="P576" s="24"/>
-      <c r="Q576" s="24"/>
-      <c r="R576" s="24"/>
-      <c r="S576" s="24"/>
       <c r="T576" s="5"/>
     </row>
     <row r="577" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B577" s="4"/>
-      <c r="C577" s="24"/>
-      <c r="D577" s="24"/>
-      <c r="E577" s="24"/>
-      <c r="F577" s="24"/>
-      <c r="G577" s="24"/>
-      <c r="H577" s="24"/>
-      <c r="I577" s="24"/>
-      <c r="J577" s="24"/>
-      <c r="K577" s="24"/>
-      <c r="L577" s="24"/>
-      <c r="M577" s="24"/>
-      <c r="N577" s="24"/>
-      <c r="O577" s="24"/>
-      <c r="P577" s="24"/>
-      <c r="Q577" s="24"/>
-      <c r="R577" s="24"/>
-      <c r="S577" s="24"/>
       <c r="T577" s="5"/>
     </row>
     <row r="578" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B578" s="6"/>
-      <c r="C578" s="7"/>
-      <c r="D578" s="7"/>
-      <c r="E578" s="7"/>
-      <c r="F578" s="7"/>
-      <c r="G578" s="7"/>
-      <c r="H578" s="7"/>
-      <c r="I578" s="7"/>
-      <c r="J578" s="7"/>
-      <c r="K578" s="7"/>
-      <c r="L578" s="7"/>
-      <c r="M578" s="7"/>
-      <c r="N578" s="7"/>
-      <c r="O578" s="7"/>
-      <c r="P578" s="7"/>
-      <c r="Q578" s="7"/>
-      <c r="R578" s="7"/>
-      <c r="S578" s="7"/>
-      <c r="T578" s="8"/>
+      <c r="B578" s="4"/>
+      <c r="T578" s="5"/>
+    </row>
+    <row r="579" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B579" s="4"/>
+      <c r="T579" s="5"/>
+    </row>
+    <row r="580" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B580" s="4"/>
+      <c r="T580" s="5"/>
+    </row>
+    <row r="581" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B581" s="4"/>
+      <c r="T581" s="5"/>
+    </row>
+    <row r="582" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B582" s="4"/>
+      <c r="T582" s="5"/>
+    </row>
+    <row r="583" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B583" s="4"/>
+      <c r="T583" s="5"/>
+    </row>
+    <row r="584" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B584" s="4"/>
+      <c r="T584" s="5"/>
+    </row>
+    <row r="585" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B585" s="4"/>
+      <c r="T585" s="5"/>
+    </row>
+    <row r="586" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B586" s="4"/>
+      <c r="T586" s="5"/>
+    </row>
+    <row r="587" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B587" s="4"/>
+      <c r="T587" s="5"/>
+    </row>
+    <row r="588" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B588" s="4"/>
+      <c r="T588" s="5"/>
+    </row>
+    <row r="589" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B589" s="4"/>
+      <c r="T589" s="5"/>
+    </row>
+    <row r="590" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B590" s="4"/>
+      <c r="T590" s="5"/>
+    </row>
+    <row r="591" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B591" s="4"/>
+      <c r="T591" s="5"/>
+    </row>
+    <row r="592" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B592" s="4"/>
+      <c r="T592" s="5"/>
+    </row>
+    <row r="593" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B593" s="4"/>
+      <c r="T593" s="5"/>
+    </row>
+    <row r="594" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B594" s="4"/>
+      <c r="T594" s="5"/>
+    </row>
+    <row r="595" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B595" s="4"/>
+      <c r="T595" s="5"/>
+    </row>
+    <row r="596" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B596" s="4"/>
+      <c r="T596" s="5"/>
+    </row>
+    <row r="597" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B597" s="4"/>
+      <c r="T597" s="5"/>
+    </row>
+    <row r="598" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B598" s="4"/>
+      <c r="T598" s="5"/>
+    </row>
+    <row r="599" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B599" s="4"/>
+      <c r="T599" s="5"/>
+    </row>
+    <row r="600" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B600" s="4"/>
+      <c r="T600" s="5"/>
+    </row>
+    <row r="601" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B601" s="6"/>
+      <c r="C601" s="7"/>
+      <c r="D601" s="7"/>
+      <c r="E601" s="7"/>
+      <c r="F601" s="7"/>
+      <c r="G601" s="7"/>
+      <c r="H601" s="7"/>
+      <c r="I601" s="7"/>
+      <c r="J601" s="7"/>
+      <c r="K601" s="7"/>
+      <c r="L601" s="7"/>
+      <c r="M601" s="7"/>
+      <c r="N601" s="7"/>
+      <c r="O601" s="7"/>
+      <c r="P601" s="7"/>
+      <c r="Q601" s="7"/>
+      <c r="R601" s="7"/>
+      <c r="S601" s="7"/>
+      <c r="T601" s="8"/>
+    </row>
+    <row r="603" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B603" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C603" s="2"/>
+      <c r="D603" s="2"/>
+      <c r="E603" s="2"/>
+      <c r="F603" s="2"/>
+      <c r="G603" s="2"/>
+      <c r="H603" s="2"/>
+      <c r="I603" s="2"/>
+      <c r="J603" s="2"/>
+      <c r="K603" s="2"/>
+      <c r="L603" s="2"/>
+      <c r="M603" s="2"/>
+      <c r="N603" s="2"/>
+      <c r="O603" s="2"/>
+      <c r="P603" s="2"/>
+      <c r="Q603" s="2"/>
+      <c r="R603" s="2"/>
+      <c r="S603" s="2"/>
+      <c r="T603" s="3"/>
+    </row>
+    <row r="604" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B604" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T604" s="5"/>
+    </row>
+    <row r="605" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B605" s="4"/>
+      <c r="T605" s="5"/>
+    </row>
+    <row r="606" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B606" s="4"/>
+      <c r="T606" s="5"/>
+    </row>
+    <row r="607" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B607" s="4"/>
+      <c r="T607" s="5"/>
+    </row>
+    <row r="608" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B608" s="4"/>
+      <c r="T608" s="5"/>
+    </row>
+    <row r="609" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B609" s="4"/>
+      <c r="T609" s="5"/>
+    </row>
+    <row r="610" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B610" s="4"/>
+      <c r="T610" s="5"/>
+    </row>
+    <row r="611" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B611" s="6"/>
+      <c r="C611" s="7"/>
+      <c r="D611" s="7"/>
+      <c r="E611" s="7"/>
+      <c r="F611" s="7"/>
+      <c r="G611" s="7"/>
+      <c r="H611" s="7"/>
+      <c r="I611" s="7"/>
+      <c r="J611" s="7"/>
+      <c r="K611" s="7"/>
+      <c r="L611" s="7"/>
+      <c r="M611" s="7"/>
+      <c r="N611" s="7"/>
+      <c r="O611" s="7"/>
+      <c r="P611" s="7"/>
+      <c r="Q611" s="7"/>
+      <c r="R611" s="7"/>
+      <c r="S611" s="7"/>
+      <c r="T611" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFE56A5-AC8F-4E0D-A87F-58E0AFC313DB}">
+  <dimension ref="A2:Q176"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="J132" sqref="J132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="H58" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="H61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="H69" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="F70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="G71" t="s">
+        <v>40</v>
+      </c>
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L77" s="5"/>
+      <c r="M77" t="s">
+        <v>61</v>
+      </c>
+      <c r="N77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="8"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="3"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O115" s="5"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O116" s="5"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O117" s="5"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O118" s="5"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O119" s="5"/>
+      <c r="P119" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="O120" s="5"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="O121" s="5"/>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O122" s="5"/>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O123" s="5"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="O124" s="5"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O125" s="5"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O126" s="5"/>
+      <c r="P126" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O127" s="5"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="O128" s="5"/>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O129" s="5"/>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O130" s="5"/>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O131" s="5"/>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O132" s="5"/>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B133" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="8"/>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B136" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="3"/>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O137" s="5"/>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="O138" s="5"/>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+      <c r="O139" s="5"/>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B140" s="4"/>
+      <c r="O140" s="5"/>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="O141" s="5"/>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="O142" s="5"/>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+      <c r="O143" s="5"/>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+      <c r="O144" s="5"/>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+      <c r="O145" s="5"/>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+      <c r="O146" s="5"/>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+      <c r="O147" s="5"/>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+      <c r="O148" s="5"/>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+      <c r="O149" s="5"/>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+      <c r="O150" s="5"/>
+    </row>
+    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="O151" s="5"/>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B152" s="4"/>
+      <c r="O152" s="5"/>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B153" s="4"/>
+      <c r="O153" s="5"/>
+    </row>
+    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B154" s="4"/>
+      <c r="O154" s="5"/>
+    </row>
+    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B155" s="4"/>
+      <c r="O155" s="5"/>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B156" s="4"/>
+      <c r="O156" s="5"/>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B157" s="4"/>
+      <c r="O157" s="5"/>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B158" s="4"/>
+      <c r="O158" s="5"/>
+    </row>
+    <row r="159" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B159" s="4"/>
+      <c r="O159" s="5"/>
+    </row>
+    <row r="160" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B160" s="4"/>
+      <c r="O160" s="5"/>
+    </row>
+    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B161" s="4"/>
+      <c r="O161" s="5"/>
+    </row>
+    <row r="162" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B162" s="4"/>
+      <c r="O162" s="5"/>
+    </row>
+    <row r="163" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B163" s="4"/>
+      <c r="O163" s="5"/>
+    </row>
+    <row r="164" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B164" s="4"/>
+      <c r="O164" s="5"/>
+    </row>
+    <row r="165" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="O165" s="5"/>
+    </row>
+    <row r="166" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B166" s="4"/>
+      <c r="O166" s="5"/>
+    </row>
+    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B167" s="4"/>
+      <c r="O167" s="5"/>
+    </row>
+    <row r="168" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B168" s="4"/>
+      <c r="O168" s="5"/>
+    </row>
+    <row r="169" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B169" s="4"/>
+      <c r="O169" s="5"/>
+    </row>
+    <row r="170" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B170" s="4"/>
+      <c r="O170" s="5"/>
+    </row>
+    <row r="171" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B171" s="4"/>
+      <c r="O171" s="5"/>
+    </row>
+    <row r="172" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B172" s="4"/>
+      <c r="O172" s="5"/>
+    </row>
+    <row r="173" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B173" s="4"/>
+      <c r="O173" s="5"/>
+    </row>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B174" s="4"/>
+      <c r="O174" s="5"/>
+    </row>
+    <row r="175" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B175" s="4"/>
+      <c r="O175" s="5"/>
+    </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B176" s="6"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>